--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -451,20 +451,14 @@
         <v>114.3333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>117</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>115.0000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>115</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>115.3333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>112</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>116.3333333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>116</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>116.3333333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>116</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>116.6666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>116</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>116.0000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>116</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>117.0000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>118</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>116.3333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>117</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>115.6666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>114</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>114.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>115</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>114.6666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>115</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>113.6666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>114</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>111.6666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>112</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>110.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>111</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>113</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>111.6666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>111</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>112</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>109.0000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>109</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>108.6666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>108</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>109.6666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>110</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>111.3333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>112</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>112</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>111</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>110</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>111.6666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>112</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>111</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>112.0000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>110</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>112.6666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>115</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>113.6666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>113</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>112.3333333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>111</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>111.3333333333334</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>111</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>110</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>111.6666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>111</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>112.6666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>113</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>112.6666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>113</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>111.6666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>110</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>111.0000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>111</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>110.3333333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>110</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2058,12 +1824,10 @@
       <c r="J41" t="n">
         <v>110</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="n">
+        <v>110</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2099,10 +1863,12 @@
       <c r="J42" t="n">
         <v>110</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>110</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -2140,10 +1906,12 @@
       <c r="J43" t="n">
         <v>110</v>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>110</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2179,9 +1947,11 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>108</v>
+      </c>
+      <c r="K44" t="n">
+        <v>110</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,7 +1992,9 @@
       <c r="J45" t="n">
         <v>110</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>110</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2255,15 +2027,15 @@
         <v>110.3333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>110</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>110</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2296,15 +2068,15 @@
         <v>110.6666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>111</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>110</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2343,9 +2115,11 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>112</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>111</v>
+      </c>
+      <c r="K48" t="n">
+        <v>110</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,9 +2158,11 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>111</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="K49" t="n">
+        <v>110</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2427,7 +2203,9 @@
       <c r="J50" t="n">
         <v>112</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>110</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,9 +2244,11 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>115</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>113</v>
+      </c>
+      <c r="K51" t="n">
+        <v>110</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,7 +2289,9 @@
       <c r="J52" t="n">
         <v>120</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>110</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,15 +2324,15 @@
         <v>125.6666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>127</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>110</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,15 +2365,15 @@
         <v>129.0000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>132</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>110</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,15 +2406,15 @@
         <v>130.3333333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>130</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>110</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,7 +2453,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>110</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,7 +2494,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>110</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2749,7 +2535,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>110</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2788,7 +2576,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>110</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,7 +2617,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>110</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,7 +2658,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>110</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2905,7 +2699,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>110</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,7 +2740,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>110</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,7 +2781,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>110</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,7 +2822,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>110</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,7 +2863,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>110</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,7 +2904,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>110</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,7 +2945,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>110</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,7 +2986,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>110</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3217,7 +3027,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>110</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,7 +3068,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>110</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,7 +3109,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>110</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,7 +3150,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>110</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,7 +3191,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>110</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,7 +3232,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>110</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,7 +3273,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>110</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,7 +3314,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>110</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3529,7 +3355,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>110</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,7 +3396,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>110</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,7 +3437,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>110</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,7 +3478,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>110</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,7 +3519,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>110</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,7 +3560,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>110</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,7 +3601,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>110</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3802,7 +3642,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>110</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,16 +3680,20 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>110</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3875,11 +3721,17 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>110</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +3762,17 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>110</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3803,17 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>110</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3980,11 +3844,17 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>110</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>110</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4053,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>110</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4088,8 +3970,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>110</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4123,8 +4011,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>110</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4158,8 +4052,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>110</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4193,8 +4093,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>110</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4228,8 +4134,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>110</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4263,8 +4175,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>110</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4298,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>110</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +4257,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>110</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4368,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>110</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4339,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>110</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4438,8 +4380,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>110</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4473,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>110</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4508,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>110</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4543,8 +4503,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>110</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4578,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>110</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>110</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>110</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4683,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>110</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +4708,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>110</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4753,8 +4749,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>110</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +4790,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>110</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4823,8 +4831,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>110</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4858,8 +4872,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>110</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4893,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>110</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4928,8 +4954,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>110</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +4995,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>110</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4998,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>110</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5033,8 +5077,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>110</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5118,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>110</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5103,8 +5159,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>110</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5138,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>110</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5170,13 +5238,19 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>110</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>1.540454545454546</v>
       </c>
     </row>
     <row r="125">
@@ -5275,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -7655,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7690,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>6021.3706</v>
+        <v>119023.2134807018</v>
       </c>
       <c r="G2" t="n">
-        <v>114.3333333333334</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" t="n">
-        <v>65318.5335173913</v>
+        <v>6021.3706</v>
       </c>
       <c r="G3" t="n">
-        <v>115.0000000000001</v>
+        <v>97.87333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n">
         <v>115</v>
@@ -515,10 +515,10 @@
         <v>112</v>
       </c>
       <c r="F4" t="n">
-        <v>21511.6471826087</v>
+        <v>65318.5335173913</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3333333333334</v>
+        <v>98.28666666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" t="n">
-        <v>27362.9980881356</v>
+        <v>21511.6471826087</v>
       </c>
       <c r="G5" t="n">
-        <v>116.3333333333334</v>
+        <v>98.71999999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>116</v>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -585,10 +585,10 @@
         <v>114</v>
       </c>
       <c r="F6" t="n">
-        <v>19568.9478</v>
+        <v>27362.9980881356</v>
       </c>
       <c r="G6" t="n">
-        <v>116.3333333333334</v>
+        <v>99.20999999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>116</v>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" t="n">
-        <v>50395.67307435897</v>
+        <v>19568.9478</v>
       </c>
       <c r="G7" t="n">
-        <v>116.6666666666667</v>
+        <v>99.66833333333331</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>116</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
         <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>36652.3938</v>
+        <v>50395.67307435897</v>
       </c>
       <c r="G8" t="n">
-        <v>116.0000000000001</v>
+        <v>100.1416666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" t="n">
-        <v>24222.0906</v>
+        <v>36652.3938</v>
       </c>
       <c r="G9" t="n">
-        <v>117.0000000000001</v>
+        <v>100.6033333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D10" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F10" t="n">
-        <v>68818.0092</v>
+        <v>24222.0906</v>
       </c>
       <c r="G10" t="n">
-        <v>116.3333333333334</v>
+        <v>101.0816666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>117</v>
+      </c>
+      <c r="C11" t="n">
         <v>114</v>
       </c>
-      <c r="C11" t="n">
-        <v>115</v>
-      </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E11" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" t="n">
-        <v>8242.066000000001</v>
+        <v>68818.0092</v>
       </c>
       <c r="G11" t="n">
-        <v>115.6666666666667</v>
+        <v>101.4766666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" t="n">
         <v>115</v>
       </c>
       <c r="D12" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" t="n">
-        <v>14135.5178</v>
+        <v>8242.066000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6666666666667</v>
+        <v>101.9333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>115</v>
       </c>
       <c r="C13" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" t="n">
+        <v>116</v>
+      </c>
+      <c r="E13" t="n">
         <v>115</v>
       </c>
-      <c r="E13" t="n">
-        <v>114</v>
-      </c>
       <c r="F13" t="n">
-        <v>10368.6731</v>
+        <v>14135.5178</v>
       </c>
       <c r="G13" t="n">
-        <v>114.6666666666667</v>
+        <v>102.3866666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>115</v>
+      </c>
+      <c r="C14" t="n">
         <v>114</v>
       </c>
-      <c r="C14" t="n">
-        <v>112</v>
-      </c>
       <c r="D14" t="n">
+        <v>115</v>
+      </c>
+      <c r="E14" t="n">
         <v>114</v>
       </c>
-      <c r="E14" t="n">
-        <v>111</v>
-      </c>
       <c r="F14" t="n">
-        <v>28373.8121</v>
+        <v>10368.6731</v>
       </c>
       <c r="G14" t="n">
-        <v>113.6666666666667</v>
+        <v>102.8033333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>114</v>
+      </c>
+      <c r="C15" t="n">
         <v>112</v>
       </c>
-      <c r="C15" t="n">
-        <v>109</v>
-      </c>
       <c r="D15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F15" t="n">
-        <v>75325.1226</v>
+        <v>28373.8121</v>
       </c>
       <c r="G15" t="n">
-        <v>111.6666666666667</v>
+        <v>103.2066666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" t="n">
-        <v>22110.493</v>
+        <v>75325.1226</v>
       </c>
       <c r="G16" t="n">
-        <v>110.6666666666667</v>
+        <v>103.5033333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" t="n">
-        <v>29001.5351</v>
+        <v>22110.493</v>
       </c>
       <c r="G17" t="n">
-        <v>111.0000000000001</v>
+        <v>103.8416666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C18" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E18" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" t="n">
-        <v>5253.1179</v>
+        <v>29001.5351</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6666666666667</v>
+        <v>104.21</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F19" t="n">
-        <v>16544.8406</v>
+        <v>5253.1179</v>
       </c>
       <c r="G19" t="n">
-        <v>111.0000000000001</v>
+        <v>104.48</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>112</v>
+      </c>
+      <c r="C20" t="n">
         <v>109</v>
       </c>
-      <c r="C20" t="n">
-        <v>107</v>
-      </c>
       <c r="D20" t="n">
+        <v>112</v>
+      </c>
+      <c r="E20" t="n">
         <v>109</v>
       </c>
-      <c r="E20" t="n">
-        <v>107</v>
-      </c>
       <c r="F20" t="n">
-        <v>68308.0431</v>
+        <v>16544.8406</v>
       </c>
       <c r="G20" t="n">
-        <v>109.0000000000001</v>
+        <v>104.7316666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" t="n">
-        <v>4899.945</v>
+        <v>68308.0431</v>
       </c>
       <c r="G21" t="n">
-        <v>108.6666666666667</v>
+        <v>104.9833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>108</v>
+      </c>
+      <c r="C22" t="n">
         <v>110</v>
       </c>
-      <c r="C22" t="n">
-        <v>112</v>
-      </c>
       <c r="D22" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" t="n">
-        <v>5886.0921</v>
+        <v>4899.945</v>
       </c>
       <c r="G22" t="n">
-        <v>109.6666666666667</v>
+        <v>105.2833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" t="n">
         <v>112</v>
@@ -1177,13 +1177,13 @@
         <v>112</v>
       </c>
       <c r="E23" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" t="n">
-        <v>8846.2142</v>
+        <v>5886.0921</v>
       </c>
       <c r="G23" t="n">
-        <v>111.3333333333334</v>
+        <v>105.6183333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>112</v>
       </c>
       <c r="C24" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D24" t="n">
         <v>112</v>
       </c>
       <c r="E24" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F24" t="n">
-        <v>28853.02958571428</v>
+        <v>8846.2142</v>
       </c>
       <c r="G24" t="n">
-        <v>111.0000000000001</v>
+        <v>105.9533333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" t="n">
         <v>112</v>
       </c>
       <c r="E25" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" t="n">
-        <v>5512.030045535715</v>
+        <v>28853.02958571428</v>
       </c>
       <c r="G25" t="n">
-        <v>111.0000000000001</v>
+        <v>106.2366666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" t="n">
         <v>112</v>
@@ -1282,13 +1282,13 @@
         <v>112</v>
       </c>
       <c r="E26" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F26" t="n">
-        <v>50271.7341</v>
+        <v>5512.030045535715</v>
       </c>
       <c r="G26" t="n">
-        <v>111.0000000000001</v>
+        <v>106.5366666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>110</v>
+      </c>
+      <c r="C27" t="n">
         <v>112</v>
-      </c>
-      <c r="C27" t="n">
-        <v>111</v>
       </c>
       <c r="D27" t="n">
         <v>112</v>
@@ -1320,10 +1320,10 @@
         <v>109</v>
       </c>
       <c r="F27" t="n">
-        <v>23995.9909</v>
+        <v>50271.7341</v>
       </c>
       <c r="G27" t="n">
-        <v>111.6666666666667</v>
+        <v>106.8383333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>112</v>
+      </c>
+      <c r="C28" t="n">
         <v>111</v>
       </c>
-      <c r="C28" t="n">
-        <v>110</v>
-      </c>
       <c r="D28" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" t="n">
-        <v>7606.4834</v>
+        <v>23995.9909</v>
       </c>
       <c r="G28" t="n">
-        <v>111.0000000000001</v>
+        <v>107.1233333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>111</v>
+      </c>
+      <c r="C29" t="n">
         <v>110</v>
       </c>
-      <c r="C29" t="n">
-        <v>115</v>
-      </c>
       <c r="D29" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E29" t="n">
         <v>110</v>
       </c>
       <c r="F29" t="n">
-        <v>57519.0654</v>
+        <v>7606.4834</v>
       </c>
       <c r="G29" t="n">
-        <v>112.0000000000001</v>
+        <v>107.3883333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>110</v>
+      </c>
+      <c r="C30" t="n">
         <v>115</v>
-      </c>
-      <c r="C30" t="n">
-        <v>113</v>
       </c>
       <c r="D30" t="n">
         <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F30" t="n">
-        <v>17820.0802</v>
+        <v>57519.0654</v>
       </c>
       <c r="G30" t="n">
-        <v>112.6666666666667</v>
+        <v>107.7583333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" t="n">
         <v>113</v>
       </c>
       <c r="D31" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E31" t="n">
         <v>113</v>
       </c>
       <c r="F31" t="n">
-        <v>44.4601</v>
+        <v>17820.0802</v>
       </c>
       <c r="G31" t="n">
-        <v>113.6666666666667</v>
+        <v>108.1016666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C32" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F32" t="n">
-        <v>107.638</v>
+        <v>44.4601</v>
       </c>
       <c r="G32" t="n">
-        <v>112.3333333333334</v>
+        <v>108.4066666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>111</v>
       </c>
       <c r="C33" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" t="n">
         <v>111</v>
       </c>
       <c r="E33" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F33" t="n">
-        <v>8342.8187</v>
+        <v>107.638</v>
       </c>
       <c r="G33" t="n">
-        <v>111.3333333333334</v>
+        <v>108.6783333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>111</v>
+      </c>
+      <c r="C34" t="n">
         <v>110</v>
       </c>
-      <c r="C34" t="n">
-        <v>112</v>
-      </c>
       <c r="D34" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" t="n">
         <v>110</v>
       </c>
       <c r="F34" t="n">
-        <v>11810.8226</v>
+        <v>8342.8187</v>
       </c>
       <c r="G34" t="n">
-        <v>111.0000000000001</v>
+        <v>108.9333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" t="n">
         <v>113</v>
       </c>
       <c r="E35" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" t="n">
-        <v>20740.7371</v>
+        <v>11810.8226</v>
       </c>
       <c r="G35" t="n">
-        <v>111.6666666666667</v>
+        <v>109.22</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="n">
         <v>113</v>
@@ -1632,13 +1632,13 @@
         <v>113</v>
       </c>
       <c r="E36" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F36" t="n">
-        <v>18582.1458</v>
+        <v>20740.7371</v>
       </c>
       <c r="G36" t="n">
-        <v>112.6666666666667</v>
+        <v>109.4666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" t="n">
-        <v>13762.8036</v>
+        <v>18582.1458</v>
       </c>
       <c r="G37" t="n">
-        <v>112.6666666666667</v>
+        <v>109.7516666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C38" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E38" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F38" t="n">
-        <v>1528.1596</v>
+        <v>13762.8036</v>
       </c>
       <c r="G38" t="n">
-        <v>111.6666666666667</v>
+        <v>109.9833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" t="n">
-        <v>1294.3513</v>
+        <v>1528.1596</v>
       </c>
       <c r="G39" t="n">
-        <v>111.0000000000001</v>
+        <v>110.15</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D40" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F40" t="n">
-        <v>7615.3472</v>
+        <v>1294.3513</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3333333333334</v>
+        <v>110.3166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,23 +1810,19 @@
         <v>110</v>
       </c>
       <c r="F41" t="n">
-        <v>3278.8619</v>
+        <v>7615.3472</v>
       </c>
       <c r="G41" t="n">
-        <v>110.3333333333334</v>
+        <v>110.4333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>110</v>
-      </c>
-      <c r="K41" t="n">
-        <v>110</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1849,28 +1845,20 @@
         <v>110</v>
       </c>
       <c r="F42" t="n">
-        <v>3757.5706</v>
+        <v>3278.8619</v>
       </c>
       <c r="G42" t="n">
-        <v>110.0000000000001</v>
+        <v>110.5333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>110</v>
-      </c>
-      <c r="K42" t="n">
-        <v>110</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1883,377 +1871,315 @@
         <v>110</v>
       </c>
       <c r="C43" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" t="n">
         <v>110</v>
       </c>
       <c r="E43" t="n">
+        <v>110</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3757.5706</v>
+      </c>
+      <c r="G43" t="n">
+        <v>110.6333333333333</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>110</v>
+      </c>
+      <c r="C44" t="n">
         <v>108</v>
       </c>
-      <c r="F43" t="n">
+      <c r="D44" t="n">
+        <v>110</v>
+      </c>
+      <c r="E44" t="n">
+        <v>108</v>
+      </c>
+      <c r="F44" t="n">
         <v>13763.05</v>
       </c>
-      <c r="G43" t="n">
-        <v>109.3333333333334</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="G44" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>110</v>
       </c>
-      <c r="K43" t="n">
+      <c r="C45" t="n">
         <v>110</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="D45" t="n">
+        <v>110</v>
+      </c>
+      <c r="E45" t="n">
+        <v>110</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1393.3181</v>
+      </c>
+      <c r="G45" t="n">
+        <v>110.7666666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>110</v>
+      </c>
+      <c r="C46" t="n">
+        <v>110</v>
+      </c>
+      <c r="D46" t="n">
+        <v>110</v>
+      </c>
+      <c r="E46" t="n">
+        <v>110</v>
+      </c>
+      <c r="F46" t="n">
+        <v>712.4863</v>
+      </c>
+      <c r="G46" t="n">
+        <v>110.8333333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>110</v>
+      </c>
+      <c r="C47" t="n">
+        <v>111</v>
+      </c>
+      <c r="D47" t="n">
+        <v>111</v>
+      </c>
+      <c r="E47" t="n">
+        <v>110</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3144.6508</v>
+      </c>
+      <c r="G47" t="n">
+        <v>110.9166666666667</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>111</v>
+      </c>
+      <c r="C48" t="n">
+        <v>111</v>
+      </c>
+      <c r="D48" t="n">
+        <v>111</v>
+      </c>
+      <c r="E48" t="n">
+        <v>111</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7065.3067</v>
+      </c>
+      <c r="G48" t="n">
+        <v>111.0166666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>112</v>
+      </c>
+      <c r="C49" t="n">
+        <v>110</v>
+      </c>
+      <c r="D49" t="n">
+        <v>112</v>
+      </c>
+      <c r="E49" t="n">
+        <v>110</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1087.1428</v>
+      </c>
+      <c r="G49" t="n">
+        <v>111.1166666666667</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>111</v>
+      </c>
+      <c r="C50" t="n">
+        <v>112</v>
+      </c>
+      <c r="D50" t="n">
+        <v>112</v>
+      </c>
+      <c r="E50" t="n">
+        <v>111</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8356.429599999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>111.2666666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>112</v>
+      </c>
+      <c r="C51" t="n">
+        <v>113</v>
+      </c>
+      <c r="D51" t="n">
+        <v>116</v>
+      </c>
+      <c r="E51" t="n">
+        <v>112</v>
+      </c>
+      <c r="F51" t="n">
+        <v>66115.48133017242</v>
+      </c>
+      <c r="G51" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>112</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>110</v>
-      </c>
-      <c r="C44" t="n">
-        <v>110</v>
-      </c>
-      <c r="D44" t="n">
-        <v>110</v>
-      </c>
-      <c r="E44" t="n">
-        <v>110</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1393.3181</v>
-      </c>
-      <c r="G44" t="n">
-        <v>109.3333333333334</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>108</v>
-      </c>
-      <c r="K44" t="n">
-        <v>110</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>110</v>
-      </c>
-      <c r="C45" t="n">
-        <v>110</v>
-      </c>
-      <c r="D45" t="n">
-        <v>110</v>
-      </c>
-      <c r="E45" t="n">
-        <v>110</v>
-      </c>
-      <c r="F45" t="n">
-        <v>712.4863</v>
-      </c>
-      <c r="G45" t="n">
-        <v>109.3333333333334</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>110</v>
-      </c>
-      <c r="K45" t="n">
-        <v>110</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>110</v>
-      </c>
-      <c r="C46" t="n">
-        <v>111</v>
-      </c>
-      <c r="D46" t="n">
-        <v>111</v>
-      </c>
-      <c r="E46" t="n">
-        <v>110</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3144.6508</v>
-      </c>
-      <c r="G46" t="n">
-        <v>110.3333333333334</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>110</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>111</v>
-      </c>
-      <c r="C47" t="n">
-        <v>111</v>
-      </c>
-      <c r="D47" t="n">
-        <v>111</v>
-      </c>
-      <c r="E47" t="n">
-        <v>111</v>
-      </c>
-      <c r="F47" t="n">
-        <v>7065.3067</v>
-      </c>
-      <c r="G47" t="n">
-        <v>110.6666666666667</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>110</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>112</v>
-      </c>
-      <c r="C48" t="n">
-        <v>110</v>
-      </c>
-      <c r="D48" t="n">
-        <v>112</v>
-      </c>
-      <c r="E48" t="n">
-        <v>110</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1087.1428</v>
-      </c>
-      <c r="G48" t="n">
-        <v>110.6666666666667</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>111</v>
-      </c>
-      <c r="K48" t="n">
-        <v>110</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>111</v>
-      </c>
-      <c r="C49" t="n">
-        <v>112</v>
-      </c>
-      <c r="D49" t="n">
-        <v>112</v>
-      </c>
-      <c r="E49" t="n">
-        <v>111</v>
-      </c>
-      <c r="F49" t="n">
-        <v>8356.429599999999</v>
-      </c>
-      <c r="G49" t="n">
-        <v>111.0000000000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>110</v>
-      </c>
-      <c r="K49" t="n">
-        <v>110</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>112</v>
-      </c>
-      <c r="C50" t="n">
-        <v>113</v>
-      </c>
-      <c r="D50" t="n">
-        <v>116</v>
-      </c>
-      <c r="E50" t="n">
-        <v>112</v>
-      </c>
-      <c r="F50" t="n">
-        <v>66115.48133017242</v>
-      </c>
-      <c r="G50" t="n">
-        <v>111.6666666666667</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>112</v>
-      </c>
-      <c r="K50" t="n">
-        <v>110</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>115</v>
-      </c>
-      <c r="C51" t="n">
-        <v>120</v>
-      </c>
-      <c r="D51" t="n">
-        <v>120</v>
-      </c>
-      <c r="E51" t="n">
-        <v>115</v>
-      </c>
-      <c r="F51" t="n">
-        <v>54866.10978327296</v>
-      </c>
-      <c r="G51" t="n">
-        <v>115.0000000000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>113</v>
-      </c>
-      <c r="K51" t="n">
-        <v>110</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2263,22 +2189,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>115</v>
+      </c>
+      <c r="C52" t="n">
         <v>120</v>
       </c>
-      <c r="C52" t="n">
-        <v>127</v>
-      </c>
       <c r="D52" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E52" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F52" t="n">
-        <v>66698.44855978296</v>
+        <v>54866.10978327296</v>
       </c>
       <c r="G52" t="n">
-        <v>120.0000000000001</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2287,11 +2213,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>120</v>
-      </c>
-      <c r="K52" t="n">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2306,22 +2230,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>120</v>
+      </c>
+      <c r="C53" t="n">
         <v>127</v>
       </c>
-      <c r="C53" t="n">
-        <v>130</v>
-      </c>
       <c r="D53" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E53" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F53" t="n">
-        <v>79306.47512677165</v>
+        <v>66698.44855978296</v>
       </c>
       <c r="G53" t="n">
-        <v>125.6666666666667</v>
+        <v>112.0833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2330,9 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>110</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C54" t="n">
         <v>130</v>
       </c>
       <c r="D54" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E54" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F54" t="n">
-        <v>190612.3385526251</v>
+        <v>79306.47512677165</v>
       </c>
       <c r="G54" t="n">
-        <v>129.0000000000001</v>
+        <v>112.5166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2371,9 +2293,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>110</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2388,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>132</v>
+      </c>
+      <c r="C55" t="n">
         <v>130</v>
       </c>
-      <c r="C55" t="n">
-        <v>131</v>
-      </c>
       <c r="D55" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E55" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F55" t="n">
-        <v>63806.6824</v>
+        <v>190612.3385526251</v>
       </c>
       <c r="G55" t="n">
-        <v>130.3333333333334</v>
+        <v>113</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2412,9 +2332,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>110</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,19 +2350,19 @@
         <v>130</v>
       </c>
       <c r="C56" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E56" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F56" t="n">
-        <v>35288.7795</v>
+        <v>63806.6824</v>
       </c>
       <c r="G56" t="n">
-        <v>131.3333333333334</v>
+        <v>113.4666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2453,9 +2371,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>110</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2470,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C57" t="n">
         <v>133</v>
       </c>
       <c r="D57" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E57" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F57" t="n">
-        <v>42120.4758</v>
+        <v>35288.7795</v>
       </c>
       <c r="G57" t="n">
-        <v>132.3333333333334</v>
+        <v>113.95</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2494,9 +2410,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>110</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,19 +2428,19 @@
         <v>133</v>
       </c>
       <c r="C58" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D58" t="n">
         <v>135</v>
       </c>
       <c r="E58" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F58" t="n">
-        <v>59405.4111</v>
+        <v>42120.4758</v>
       </c>
       <c r="G58" t="n">
-        <v>132.0000000000001</v>
+        <v>114.2166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2535,9 +2449,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>110</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2552,10 +2464,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>133</v>
+      </c>
+      <c r="C59" t="n">
         <v>130</v>
-      </c>
-      <c r="C59" t="n">
-        <v>135</v>
       </c>
       <c r="D59" t="n">
         <v>135</v>
@@ -2564,10 +2476,10 @@
         <v>130</v>
       </c>
       <c r="F59" t="n">
-        <v>42996.0515</v>
+        <v>59405.4111</v>
       </c>
       <c r="G59" t="n">
-        <v>132.6666666666667</v>
+        <v>114.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2576,9 +2488,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>110</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,22 +2503,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>130</v>
+      </c>
+      <c r="C60" t="n">
         <v>135</v>
       </c>
-      <c r="C60" t="n">
-        <v>136</v>
-      </c>
       <c r="D60" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" t="n">
         <v>130</v>
       </c>
       <c r="F60" t="n">
-        <v>27247.7918</v>
+        <v>42996.0515</v>
       </c>
       <c r="G60" t="n">
-        <v>133.6666666666667</v>
+        <v>114.8833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2617,9 +2527,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>110</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2634,22 +2542,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" t="n">
         <v>136</v>
       </c>
       <c r="D61" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E61" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F61" t="n">
-        <v>34664.5867</v>
+        <v>27247.7918</v>
       </c>
       <c r="G61" t="n">
-        <v>135.6666666666667</v>
+        <v>115.2666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2658,9 +2566,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>110</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,22 +2581,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D62" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E62" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F62" t="n">
-        <v>95143.57739999999</v>
+        <v>34664.5867</v>
       </c>
       <c r="G62" t="n">
-        <v>134.3333333333334</v>
+        <v>115.6333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2699,9 +2605,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>110</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2716,22 +2620,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C63" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E63" t="n">
         <v>127</v>
       </c>
       <c r="F63" t="n">
-        <v>36203.9774</v>
+        <v>95143.57739999999</v>
       </c>
       <c r="G63" t="n">
-        <v>132.3333333333334</v>
+        <v>115.8833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2740,9 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>110</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2757,22 +2659,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D64" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E64" t="n">
         <v>127</v>
       </c>
       <c r="F64" t="n">
-        <v>16947.123</v>
+        <v>36203.9774</v>
       </c>
       <c r="G64" t="n">
-        <v>129.6666666666667</v>
+        <v>116.1333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2781,9 +2683,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>110</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,22 +2698,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>127</v>
+      </c>
+      <c r="C65" t="n">
         <v>128</v>
-      </c>
-      <c r="C65" t="n">
-        <v>129</v>
       </c>
       <c r="D65" t="n">
         <v>129</v>
       </c>
       <c r="E65" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" t="n">
-        <v>19321.5302</v>
+        <v>16947.123</v>
       </c>
       <c r="G65" t="n">
-        <v>129.0000000000001</v>
+        <v>116.35</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2822,9 +2722,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>110</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,19 +2740,19 @@
         <v>128</v>
       </c>
       <c r="C66" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D66" t="n">
+        <v>129</v>
+      </c>
+      <c r="E66" t="n">
         <v>128</v>
       </c>
-      <c r="E66" t="n">
-        <v>126</v>
-      </c>
       <c r="F66" t="n">
-        <v>22270.8405</v>
+        <v>19321.5302</v>
       </c>
       <c r="G66" t="n">
-        <v>127.6666666666667</v>
+        <v>116.5166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2863,9 +2761,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>110</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,19 +2779,19 @@
         <v>128</v>
       </c>
       <c r="C67" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D67" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E67" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F67" t="n">
-        <v>13168.6885</v>
+        <v>22270.8405</v>
       </c>
       <c r="G67" t="n">
-        <v>128.0000000000001</v>
+        <v>116.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2904,9 +2800,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>110</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,22 +2815,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>128</v>
+      </c>
+      <c r="C68" t="n">
         <v>129</v>
-      </c>
-      <c r="C68" t="n">
-        <v>128</v>
       </c>
       <c r="D68" t="n">
         <v>129</v>
       </c>
       <c r="E68" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" t="n">
-        <v>9911.768700000001</v>
+        <v>13168.6885</v>
       </c>
       <c r="G68" t="n">
-        <v>127.6666666666667</v>
+        <v>116.9166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2945,9 +2839,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>110</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,19 +2857,19 @@
         <v>129</v>
       </c>
       <c r="C69" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D69" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E69" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" t="n">
-        <v>59659.94152408759</v>
+        <v>9911.768700000001</v>
       </c>
       <c r="G69" t="n">
-        <v>131.3333333333334</v>
+        <v>117.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2986,9 +2878,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>110</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,7 +2893,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C70" t="n">
         <v>137</v>
@@ -3012,13 +2902,13 @@
         <v>137</v>
       </c>
       <c r="E70" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F70" t="n">
-        <v>8028.767575912409</v>
+        <v>59659.94152408759</v>
       </c>
       <c r="G70" t="n">
-        <v>134.0000000000001</v>
+        <v>117.4166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3027,9 +2917,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>110</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,13 +2941,13 @@
         <v>137</v>
       </c>
       <c r="E71" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F71" t="n">
-        <v>9058.524124087591</v>
+        <v>8028.767575912409</v>
       </c>
       <c r="G71" t="n">
-        <v>137.0000000000001</v>
+        <v>117.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3068,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>110</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,19 +2974,19 @@
         <v>137</v>
       </c>
       <c r="C72" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D72" t="n">
         <v>137</v>
       </c>
       <c r="E72" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F72" t="n">
-        <v>9100.5941</v>
+        <v>9058.524124087591</v>
       </c>
       <c r="G72" t="n">
-        <v>136.3333333333334</v>
+        <v>118.1666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3109,9 +2995,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>110</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C73" t="n">
         <v>135</v>
       </c>
       <c r="D73" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" t="n">
         <v>135</v>
       </c>
       <c r="F73" t="n">
-        <v>5484.2059</v>
+        <v>9100.5941</v>
       </c>
       <c r="G73" t="n">
-        <v>135.6666666666667</v>
+        <v>118.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3150,9 +3034,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>110</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,22 +3049,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D74" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E74" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F74" t="n">
-        <v>24749.0545</v>
+        <v>5484.2059</v>
       </c>
       <c r="G74" t="n">
-        <v>133.6666666666667</v>
+        <v>118.85</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3191,9 +3073,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>110</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,22 +3088,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D75" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E75" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F75" t="n">
-        <v>6647.853685925926</v>
+        <v>24749.0545</v>
       </c>
       <c r="G75" t="n">
-        <v>133.6666666666667</v>
+        <v>119.1666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3232,9 +3112,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>110</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,7 +3127,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" t="n">
         <v>135</v>
@@ -3261,10 +3139,10 @@
         <v>133</v>
       </c>
       <c r="F76" t="n">
-        <v>10697.97791407407</v>
+        <v>6647.853685925926</v>
       </c>
       <c r="G76" t="n">
-        <v>133.6666666666667</v>
+        <v>119.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3273,9 +3151,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>110</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3293,19 +3169,19 @@
         <v>135</v>
       </c>
       <c r="C77" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D77" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E77" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F77" t="n">
-        <v>12982.9873</v>
+        <v>10697.97791407407</v>
       </c>
       <c r="G77" t="n">
-        <v>135.6666666666667</v>
+        <v>120</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3314,9 +3190,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>110</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,22 +3205,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>135</v>
+      </c>
+      <c r="C78" t="n">
         <v>137</v>
       </c>
-      <c r="C78" t="n">
-        <v>144</v>
-      </c>
       <c r="D78" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E78" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F78" t="n">
-        <v>176206.8690250562</v>
+        <v>12982.9873</v>
       </c>
       <c r="G78" t="n">
-        <v>138.6666666666667</v>
+        <v>120.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3355,9 +3229,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>110</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,22 +3244,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>137</v>
+      </c>
+      <c r="C79" t="n">
         <v>144</v>
       </c>
-      <c r="C79" t="n">
-        <v>153</v>
-      </c>
       <c r="D79" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E79" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F79" t="n">
-        <v>139235.7850562092</v>
+        <v>176206.8690250562</v>
       </c>
       <c r="G79" t="n">
-        <v>144.6666666666667</v>
+        <v>120.95</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3396,9 +3268,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>110</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,22 +3283,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C80" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D80" t="n">
         <v>153</v>
       </c>
       <c r="E80" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F80" t="n">
-        <v>97208.77529999999</v>
+        <v>139235.7850562092</v>
       </c>
       <c r="G80" t="n">
-        <v>147.3333333333334</v>
+        <v>121.6833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3437,9 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>110</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,79 +3322,69 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>152</v>
+      </c>
+      <c r="C81" t="n">
         <v>145</v>
       </c>
-      <c r="C81" t="n">
-        <v>140</v>
-      </c>
       <c r="D81" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E81" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F81" t="n">
-        <v>39406.7657</v>
+        <v>97208.77529999999</v>
       </c>
       <c r="G81" t="n">
-        <v>146.0000000000001</v>
+        <v>122.3166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>110</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C82" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D82" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F82" t="n">
-        <v>48693.4337</v>
+        <v>39406.7657</v>
       </c>
       <c r="G82" t="n">
-        <v>143.6666666666667</v>
+        <v>122.8166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>110</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3536,22 +3394,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>142</v>
+      </c>
+      <c r="C83" t="n">
         <v>146</v>
       </c>
-      <c r="C83" t="n">
-        <v>147</v>
-      </c>
       <c r="D83" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E83" t="n">
         <v>142</v>
       </c>
       <c r="F83" t="n">
-        <v>64357.367</v>
+        <v>48693.4337</v>
       </c>
       <c r="G83" t="n">
-        <v>144.3333333333334</v>
+        <v>123.3833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3560,14 +3418,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>110</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3577,22 +3429,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>146</v>
+      </c>
+      <c r="C84" t="n">
         <v>147</v>
       </c>
-      <c r="C84" t="n">
-        <v>145</v>
-      </c>
       <c r="D84" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E84" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" t="n">
-        <v>64587.42765135135</v>
+        <v>64357.367</v>
       </c>
       <c r="G84" t="n">
-        <v>146.0000000000001</v>
+        <v>123.9666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3601,14 +3453,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>110</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3464,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>147</v>
+      </c>
+      <c r="C85" t="n">
         <v>145</v>
       </c>
-      <c r="C85" t="n">
-        <v>143</v>
-      </c>
       <c r="D85" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E85" t="n">
         <v>143</v>
       </c>
       <c r="F85" t="n">
-        <v>12895.04849310345</v>
+        <v>64587.42765135135</v>
       </c>
       <c r="G85" t="n">
-        <v>145.0000000000001</v>
+        <v>124.5666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3642,14 +3488,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>110</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3659,22 +3499,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>145</v>
+      </c>
+      <c r="C86" t="n">
         <v>143</v>
       </c>
-      <c r="C86" t="n">
-        <v>142</v>
-      </c>
       <c r="D86" t="n">
+        <v>145</v>
+      </c>
+      <c r="E86" t="n">
         <v>143</v>
       </c>
-      <c r="E86" t="n">
-        <v>142</v>
-      </c>
       <c r="F86" t="n">
-        <v>32855.23898181818</v>
+        <v>12895.04849310345</v>
       </c>
       <c r="G86" t="n">
-        <v>143.3333333333334</v>
+        <v>125.0833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3683,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>110</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3700,22 +3534,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C87" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D87" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E87" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F87" t="n">
-        <v>3599.992</v>
+        <v>32855.23898181818</v>
       </c>
       <c r="G87" t="n">
-        <v>141.6666666666667</v>
+        <v>125.5833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3724,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>110</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3741,22 +3569,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C88" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D88" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E88" t="n">
         <v>140</v>
       </c>
       <c r="F88" t="n">
-        <v>17511.3768</v>
+        <v>3599.992</v>
       </c>
       <c r="G88" t="n">
-        <v>142.0000000000001</v>
+        <v>126.0666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3765,14 +3593,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>110</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3782,22 +3604,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>142</v>
+      </c>
+      <c r="C89" t="n">
         <v>144</v>
-      </c>
-      <c r="C89" t="n">
-        <v>142</v>
       </c>
       <c r="D89" t="n">
         <v>144</v>
       </c>
       <c r="E89" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F89" t="n">
-        <v>1289.963</v>
+        <v>17511.3768</v>
       </c>
       <c r="G89" t="n">
-        <v>142.0000000000001</v>
+        <v>126.6333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3806,14 +3628,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>110</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3823,22 +3639,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>144</v>
+      </c>
+      <c r="C90" t="n">
         <v>142</v>
       </c>
-      <c r="C90" t="n">
-        <v>143</v>
-      </c>
       <c r="D90" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E90" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F90" t="n">
-        <v>58923.1812</v>
+        <v>1289.963</v>
       </c>
       <c r="G90" t="n">
-        <v>143.0000000000001</v>
+        <v>127.0833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3847,14 +3663,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>110</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3864,22 +3674,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C91" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D91" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" t="n">
         <v>137</v>
       </c>
       <c r="F91" t="n">
-        <v>75936.5386</v>
+        <v>58923.1812</v>
       </c>
       <c r="G91" t="n">
-        <v>142.3333333333334</v>
+        <v>127.5833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3888,14 +3698,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>110</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3905,22 +3709,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>140</v>
+      </c>
+      <c r="C92" t="n">
         <v>142</v>
       </c>
-      <c r="C92" t="n">
-        <v>141</v>
-      </c>
       <c r="D92" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E92" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F92" t="n">
-        <v>16424.95365454545</v>
+        <v>75936.5386</v>
       </c>
       <c r="G92" t="n">
-        <v>142.0000000000001</v>
+        <v>128.0666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3929,14 +3733,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>110</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3946,10 +3744,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" t="n">
         <v>143</v>
@@ -3958,10 +3756,10 @@
         <v>141</v>
       </c>
       <c r="F93" t="n">
-        <v>41619.8442</v>
+        <v>16424.95365454545</v>
       </c>
       <c r="G93" t="n">
-        <v>141.6666666666667</v>
+        <v>128.5666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3970,14 +3768,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>110</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3987,22 +3779,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C94" t="n">
         <v>142</v>
       </c>
       <c r="D94" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E94" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F94" t="n">
-        <v>23556.0422</v>
+        <v>41619.8442</v>
       </c>
       <c r="G94" t="n">
-        <v>141.6666666666667</v>
+        <v>129.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4011,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>110</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4028,22 +3814,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C95" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D95" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E95" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F95" t="n">
-        <v>26957.8727</v>
+        <v>23556.0422</v>
       </c>
       <c r="G95" t="n">
-        <v>142.6666666666667</v>
+        <v>129.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4052,14 +3838,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>110</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4069,10 +3849,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>141</v>
+      </c>
+      <c r="C96" t="n">
         <v>144</v>
-      </c>
-      <c r="C96" t="n">
-        <v>141</v>
       </c>
       <c r="D96" t="n">
         <v>144</v>
@@ -4081,10 +3861,10 @@
         <v>140</v>
       </c>
       <c r="F96" t="n">
-        <v>46077.5733</v>
+        <v>26957.8727</v>
       </c>
       <c r="G96" t="n">
-        <v>142.3333333333334</v>
+        <v>130.1166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4093,14 +3873,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>110</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +3884,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C97" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D97" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E97" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F97" t="n">
-        <v>18550.9195</v>
+        <v>46077.5733</v>
       </c>
       <c r="G97" t="n">
-        <v>141.0000000000001</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4134,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>110</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4151,22 +3919,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C98" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D98" t="n">
+        <v>139</v>
+      </c>
+      <c r="E98" t="n">
         <v>138</v>
       </c>
-      <c r="E98" t="n">
-        <v>136</v>
-      </c>
       <c r="F98" t="n">
-        <v>6194.7288</v>
+        <v>18550.9195</v>
       </c>
       <c r="G98" t="n">
-        <v>138.6666666666667</v>
+        <v>131.0166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4175,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>110</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4192,22 +3954,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>136</v>
+      </c>
+      <c r="C99" t="n">
         <v>137</v>
       </c>
-      <c r="C99" t="n">
-        <v>140</v>
-      </c>
       <c r="D99" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E99" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F99" t="n">
-        <v>27311.40878785714</v>
+        <v>6194.7288</v>
       </c>
       <c r="G99" t="n">
-        <v>138.3333333333334</v>
+        <v>131.4666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4216,14 +3978,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>110</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4233,22 +3989,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D100" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E100" t="n">
         <v>137</v>
       </c>
       <c r="F100" t="n">
-        <v>11145.3576</v>
+        <v>27311.40878785714</v>
       </c>
       <c r="G100" t="n">
-        <v>138.0000000000001</v>
+        <v>131.95</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4257,14 +4013,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>110</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +4024,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C101" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D101" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E101" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F101" t="n">
-        <v>7731.0507</v>
+        <v>11145.3576</v>
       </c>
       <c r="G101" t="n">
-        <v>137.6666666666667</v>
+        <v>132.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4298,14 +4048,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>110</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4315,22 +4059,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C102" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D102" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102" t="n">
         <v>135</v>
       </c>
       <c r="F102" t="n">
-        <v>2533.5972</v>
+        <v>7731.0507</v>
       </c>
       <c r="G102" t="n">
-        <v>136.0000000000001</v>
+        <v>132.8333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4339,14 +4083,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>110</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4359,19 +4097,19 @@
         <v>135</v>
       </c>
       <c r="C103" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D103" t="n">
         <v>135</v>
       </c>
       <c r="E103" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F103" t="n">
-        <v>3923.8834</v>
+        <v>2533.5972</v>
       </c>
       <c r="G103" t="n">
-        <v>135.0000000000001</v>
+        <v>133.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4380,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>110</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4397,22 +4129,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>135</v>
+      </c>
+      <c r="C104" t="n">
         <v>134</v>
       </c>
-      <c r="C104" t="n">
-        <v>131</v>
-      </c>
       <c r="D104" t="n">
+        <v>135</v>
+      </c>
+      <c r="E104" t="n">
         <v>134</v>
       </c>
-      <c r="E104" t="n">
-        <v>131</v>
-      </c>
       <c r="F104" t="n">
-        <v>38360.6012</v>
+        <v>3923.8834</v>
       </c>
       <c r="G104" t="n">
-        <v>133.3333333333334</v>
+        <v>133.6833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4421,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>110</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4438,7 +4164,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C105" t="n">
         <v>131</v>
@@ -4450,10 +4176,10 @@
         <v>131</v>
       </c>
       <c r="F105" t="n">
-        <v>29564.3149</v>
+        <v>38360.6012</v>
       </c>
       <c r="G105" t="n">
-        <v>132.0000000000001</v>
+        <v>134.0333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4462,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>110</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4479,22 +4199,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C106" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D106" t="n">
         <v>134</v>
       </c>
       <c r="E106" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F106" t="n">
-        <v>3187.1614</v>
+        <v>29564.3149</v>
       </c>
       <c r="G106" t="n">
-        <v>131.3333333333334</v>
+        <v>134.3833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4503,14 +4223,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>110</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4523,19 +4237,19 @@
         <v>134</v>
       </c>
       <c r="C107" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D107" t="n">
         <v>134</v>
       </c>
       <c r="E107" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F107" t="n">
-        <v>181.8071</v>
+        <v>3187.1614</v>
       </c>
       <c r="G107" t="n">
-        <v>132.3333333333334</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4544,14 +4258,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>110</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4561,22 +4269,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C108" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D108" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E108" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F108" t="n">
-        <v>76528.444</v>
+        <v>181.8071</v>
       </c>
       <c r="G108" t="n">
-        <v>137.3333333333334</v>
+        <v>135.1166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4585,14 +4293,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>110</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4602,22 +4304,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C109" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D109" t="n">
         <v>146</v>
       </c>
       <c r="E109" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F109" t="n">
-        <v>72490.3893</v>
+        <v>76528.444</v>
       </c>
       <c r="G109" t="n">
-        <v>140.3333333333334</v>
+        <v>135.7166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4626,14 +4328,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>110</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4643,22 +4339,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>143</v>
+      </c>
+      <c r="C110" t="n">
         <v>141</v>
       </c>
-      <c r="C110" t="n">
-        <v>148</v>
-      </c>
       <c r="D110" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E110" t="n">
         <v>141</v>
       </c>
       <c r="F110" t="n">
-        <v>115444.5131</v>
+        <v>72490.3893</v>
       </c>
       <c r="G110" t="n">
-        <v>145.0000000000001</v>
+        <v>136.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4667,14 +4363,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>110</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4684,10 +4374,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>141</v>
+      </c>
+      <c r="C111" t="n">
         <v>148</v>
-      </c>
-      <c r="C111" t="n">
-        <v>144</v>
       </c>
       <c r="D111" t="n">
         <v>148</v>
@@ -4696,10 +4386,10 @@
         <v>141</v>
       </c>
       <c r="F111" t="n">
-        <v>8611.745699999999</v>
+        <v>115444.5131</v>
       </c>
       <c r="G111" t="n">
-        <v>144.3333333333334</v>
+        <v>136.7833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4708,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>110</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4725,22 +4409,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>148</v>
+      </c>
+      <c r="C112" t="n">
         <v>144</v>
       </c>
-      <c r="C112" t="n">
-        <v>146</v>
-      </c>
       <c r="D112" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E112" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F112" t="n">
-        <v>3126.9451</v>
+        <v>8611.745699999999</v>
       </c>
       <c r="G112" t="n">
-        <v>146.0000000000001</v>
+        <v>137.1833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4749,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>110</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4766,22 +4444,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>144</v>
+      </c>
+      <c r="C113" t="n">
         <v>146</v>
       </c>
-      <c r="C113" t="n">
-        <v>149</v>
-      </c>
       <c r="D113" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E113" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F113" t="n">
-        <v>74340.5524</v>
+        <v>3126.9451</v>
       </c>
       <c r="G113" t="n">
-        <v>146.3333333333334</v>
+        <v>137.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4790,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>110</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4807,22 +4479,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>146</v>
+      </c>
+      <c r="C114" t="n">
         <v>149</v>
       </c>
-      <c r="C114" t="n">
-        <v>150</v>
-      </c>
       <c r="D114" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E114" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F114" t="n">
-        <v>11481.1652</v>
+        <v>74340.5524</v>
       </c>
       <c r="G114" t="n">
-        <v>148.3333333333334</v>
+        <v>137.8166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4831,14 +4503,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>110</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4851,19 +4517,19 @@
         <v>149</v>
       </c>
       <c r="C115" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D115" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E115" t="n">
         <v>149</v>
       </c>
       <c r="F115" t="n">
-        <v>138210.1339</v>
+        <v>11481.1652</v>
       </c>
       <c r="G115" t="n">
-        <v>152.3333333333334</v>
+        <v>138.15</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4872,14 +4538,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>110</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4889,22 +4549,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>149</v>
+      </c>
+      <c r="C116" t="n">
         <v>158</v>
       </c>
-      <c r="C116" t="n">
-        <v>160</v>
-      </c>
       <c r="D116" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E116" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F116" t="n">
-        <v>230462.1562207598</v>
+        <v>138210.1339</v>
       </c>
       <c r="G116" t="n">
-        <v>156.0000000000001</v>
+        <v>138.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4913,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>110</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4930,22 +4584,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C117" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D117" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E117" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F117" t="n">
-        <v>61350.4543345679</v>
+        <v>230462.1562207598</v>
       </c>
       <c r="G117" t="n">
-        <v>161.3333333333334</v>
+        <v>139.05</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4954,14 +4608,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>110</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4971,22 +4619,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C118" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D118" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E118" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F118" t="n">
-        <v>52026.255</v>
+        <v>61350.4543345679</v>
       </c>
       <c r="G118" t="n">
-        <v>161.6666666666667</v>
+        <v>139.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4995,14 +4643,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>110</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5012,38 +4654,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>165</v>
+      </c>
+      <c r="C119" t="n">
+        <v>159</v>
+      </c>
+      <c r="D119" t="n">
+        <v>165</v>
+      </c>
+      <c r="E119" t="n">
         <v>158</v>
       </c>
-      <c r="C119" t="n">
-        <v>154</v>
-      </c>
-      <c r="D119" t="n">
-        <v>158</v>
-      </c>
-      <c r="E119" t="n">
-        <v>152</v>
-      </c>
       <c r="F119" t="n">
-        <v>36731.1586</v>
+        <v>52026.255</v>
       </c>
       <c r="G119" t="n">
-        <v>159.6666666666667</v>
+        <v>140.0833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>110</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5053,38 +4689,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C120" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D120" t="n">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E120" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F120" t="n">
-        <v>113432.447199375</v>
+        <v>36731.1586</v>
       </c>
       <c r="G120" t="n">
-        <v>160.0000000000001</v>
+        <v>140.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>110</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5094,22 +4724,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C121" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D121" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E121" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F121" t="n">
-        <v>114611.5553</v>
+        <v>113432.447199375</v>
       </c>
       <c r="G121" t="n">
-        <v>163.0000000000001</v>
+        <v>140.9166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5118,14 +4748,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>110</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5135,22 +4759,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>163</v>
+      </c>
+      <c r="C122" t="n">
         <v>168</v>
       </c>
-      <c r="C122" t="n">
-        <v>172</v>
-      </c>
       <c r="D122" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E122" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F122" t="n">
-        <v>291005.1032457627</v>
+        <v>114611.5553</v>
       </c>
       <c r="G122" t="n">
-        <v>169.0000000000001</v>
+        <v>141.45</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5159,14 +4783,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>110</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5176,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C123" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D123" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E123" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F123" t="n">
-        <v>123602.9899046512</v>
+        <v>291005.1032457627</v>
       </c>
       <c r="G123" t="n">
-        <v>170.0000000000001</v>
+        <v>142.1333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5200,14 +4818,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>110</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5217,40 +4829,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C124" t="n">
         <v>170</v>
       </c>
       <c r="D124" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E124" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F124" t="n">
-        <v>111621.8010588235</v>
+        <v>123602.9899046512</v>
       </c>
       <c r="G124" t="n">
-        <v>170.6666666666667</v>
+        <v>142.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>110</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>1.540454545454546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -5261,19 +4867,19 @@
         <v>170</v>
       </c>
       <c r="C125" t="n">
+        <v>170</v>
+      </c>
+      <c r="D125" t="n">
         <v>173</v>
       </c>
-      <c r="D125" t="n">
-        <v>175</v>
-      </c>
       <c r="E125" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F125" t="n">
-        <v>216579.6696411765</v>
+        <v>111621.8010588235</v>
       </c>
       <c r="G125" t="n">
-        <v>171.0000000000001</v>
+        <v>143.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5293,22 +4899,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>170</v>
+      </c>
+      <c r="C126" t="n">
         <v>173</v>
       </c>
-      <c r="C126" t="n">
-        <v>166</v>
-      </c>
       <c r="D126" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E126" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F126" t="n">
-        <v>75229.82290487265</v>
+        <v>216579.6696411765</v>
       </c>
       <c r="G126" t="n">
-        <v>169.6666666666667</v>
+        <v>144.2333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5328,28 +4934,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>173</v>
+      </c>
+      <c r="C127" t="n">
         <v>166</v>
       </c>
-      <c r="C127" t="n">
-        <v>167</v>
-      </c>
       <c r="D127" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E127" t="n">
         <v>166</v>
       </c>
       <c r="F127" t="n">
-        <v>73131.2015</v>
+        <v>75229.82290487265</v>
       </c>
       <c r="G127" t="n">
-        <v>168.6666666666667</v>
+        <v>144.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5363,22 +4969,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>166</v>
+      </c>
+      <c r="C128" t="n">
+        <v>167</v>
+      </c>
+      <c r="D128" t="n">
         <v>168</v>
       </c>
-      <c r="C128" t="n">
+      <c r="E128" t="n">
         <v>166</v>
       </c>
-      <c r="D128" t="n">
-        <v>169</v>
-      </c>
-      <c r="E128" t="n">
-        <v>164</v>
-      </c>
       <c r="F128" t="n">
-        <v>48063.0831</v>
+        <v>73131.2015</v>
       </c>
       <c r="G128" t="n">
-        <v>166.3333333333334</v>
+        <v>145.5333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5398,10 +5004,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>168</v>
+      </c>
+      <c r="C129" t="n">
         <v>166</v>
-      </c>
-      <c r="C129" t="n">
-        <v>169</v>
       </c>
       <c r="D129" t="n">
         <v>169</v>
@@ -5410,10 +5016,10 @@
         <v>164</v>
       </c>
       <c r="F129" t="n">
-        <v>28691.7026</v>
+        <v>48063.0831</v>
       </c>
       <c r="G129" t="n">
-        <v>167.3333333333334</v>
+        <v>146.1666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5433,22 +5039,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>166</v>
+      </c>
+      <c r="C130" t="n">
+        <v>169</v>
+      </c>
+      <c r="D130" t="n">
+        <v>169</v>
+      </c>
+      <c r="E130" t="n">
         <v>164</v>
       </c>
-      <c r="C130" t="n">
-        <v>162</v>
-      </c>
-      <c r="D130" t="n">
-        <v>164</v>
-      </c>
-      <c r="E130" t="n">
-        <v>162</v>
-      </c>
       <c r="F130" t="n">
-        <v>14366.9526</v>
+        <v>28691.7026</v>
       </c>
       <c r="G130" t="n">
-        <v>165.6666666666667</v>
+        <v>146.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5468,22 +5074,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C131" t="n">
         <v>162</v>
       </c>
       <c r="D131" t="n">
+        <v>164</v>
+      </c>
+      <c r="E131" t="n">
         <v>162</v>
       </c>
-      <c r="E131" t="n">
-        <v>160</v>
-      </c>
       <c r="F131" t="n">
-        <v>40837.3132</v>
+        <v>14366.9526</v>
       </c>
       <c r="G131" t="n">
-        <v>164.3333333333334</v>
+        <v>147.1166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5503,22 +5109,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>160</v>
+      </c>
+      <c r="C132" t="n">
         <v>162</v>
-      </c>
-      <c r="C132" t="n">
-        <v>158</v>
       </c>
       <c r="D132" t="n">
         <v>162</v>
       </c>
       <c r="E132" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F132" t="n">
-        <v>36283.4241</v>
+        <v>40837.3132</v>
       </c>
       <c r="G132" t="n">
-        <v>160.6666666666667</v>
+        <v>147.5333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5538,22 +5144,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>162</v>
+      </c>
+      <c r="C133" t="n">
         <v>158</v>
       </c>
-      <c r="C133" t="n">
-        <v>166</v>
-      </c>
       <c r="D133" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E133" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F133" t="n">
-        <v>85651.70329999999</v>
+        <v>36283.4241</v>
       </c>
       <c r="G133" t="n">
-        <v>162.0000000000001</v>
+        <v>147.9166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5573,22 +5179,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C134" t="n">
         <v>166</v>
       </c>
       <c r="D134" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E134" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F134" t="n">
-        <v>34921.1861</v>
+        <v>85651.70329999999</v>
       </c>
       <c r="G134" t="n">
-        <v>163.3333333333334</v>
+        <v>148.4333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5608,7 +5214,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C135" t="n">
         <v>166</v>
@@ -5617,13 +5223,13 @@
         <v>168</v>
       </c>
       <c r="E135" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F135" t="n">
-        <v>27837.13015535714</v>
+        <v>34921.1861</v>
       </c>
       <c r="G135" t="n">
-        <v>166.0000000000001</v>
+        <v>149.0166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5646,19 +5252,19 @@
         <v>163</v>
       </c>
       <c r="C136" t="n">
+        <v>166</v>
+      </c>
+      <c r="D136" t="n">
+        <v>168</v>
+      </c>
+      <c r="E136" t="n">
         <v>163</v>
       </c>
-      <c r="D136" t="n">
-        <v>166</v>
-      </c>
-      <c r="E136" t="n">
-        <v>161</v>
-      </c>
       <c r="F136" t="n">
-        <v>8399.962100000001</v>
+        <v>27837.13015535714</v>
       </c>
       <c r="G136" t="n">
-        <v>165.0000000000001</v>
+        <v>149.5333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5681,19 +5287,19 @@
         <v>163</v>
       </c>
       <c r="C137" t="n">
+        <v>163</v>
+      </c>
+      <c r="D137" t="n">
         <v>166</v>
       </c>
-      <c r="D137" t="n">
-        <v>167</v>
-      </c>
       <c r="E137" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F137" t="n">
-        <v>107866.961</v>
+        <v>8399.962100000001</v>
       </c>
       <c r="G137" t="n">
-        <v>165.0000000000001</v>
+        <v>150</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5713,10 +5319,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>163</v>
+      </c>
+      <c r="C138" t="n">
         <v>166</v>
-      </c>
-      <c r="C138" t="n">
-        <v>163</v>
       </c>
       <c r="D138" t="n">
         <v>167</v>
@@ -5725,10 +5331,10 @@
         <v>163</v>
       </c>
       <c r="F138" t="n">
-        <v>15980.4621</v>
+        <v>107866.961</v>
       </c>
       <c r="G138" t="n">
-        <v>164.0000000000001</v>
+        <v>150.4833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5748,22 +5354,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C139" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D139" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E139" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F139" t="n">
-        <v>54276.4643</v>
+        <v>15980.4621</v>
       </c>
       <c r="G139" t="n">
-        <v>165.0000000000001</v>
+        <v>150.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5783,22 +5389,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C140" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D140" t="n">
         <v>166</v>
       </c>
       <c r="E140" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F140" t="n">
-        <v>20608.4994</v>
+        <v>54276.4643</v>
       </c>
       <c r="G140" t="n">
-        <v>164.6666666666667</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5821,19 +5427,19 @@
         <v>165</v>
       </c>
       <c r="C141" t="n">
+        <v>165</v>
+      </c>
+      <c r="D141" t="n">
+        <v>166</v>
+      </c>
+      <c r="E141" t="n">
         <v>164</v>
       </c>
-      <c r="D141" t="n">
-        <v>165</v>
-      </c>
-      <c r="E141" t="n">
-        <v>161</v>
-      </c>
       <c r="F141" t="n">
-        <v>12036.2414</v>
+        <v>20608.4994</v>
       </c>
       <c r="G141" t="n">
-        <v>165.0000000000001</v>
+        <v>151.35</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5853,22 +5459,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>165</v>
+      </c>
+      <c r="C142" t="n">
         <v>164</v>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>165</v>
       </c>
-      <c r="D142" t="n">
-        <v>166</v>
-      </c>
       <c r="E142" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F142" t="n">
-        <v>35186.658</v>
+        <v>12036.2414</v>
       </c>
       <c r="G142" t="n">
-        <v>164.6666666666667</v>
+        <v>151.75</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5888,22 +5494,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C143" t="n">
+        <v>165</v>
+      </c>
+      <c r="D143" t="n">
+        <v>166</v>
+      </c>
+      <c r="E143" t="n">
         <v>164</v>
       </c>
-      <c r="D143" t="n">
-        <v>164</v>
-      </c>
-      <c r="E143" t="n">
-        <v>161</v>
-      </c>
       <c r="F143" t="n">
-        <v>11674.1772</v>
+        <v>35186.658</v>
       </c>
       <c r="G143" t="n">
-        <v>164.3333333333334</v>
+        <v>152.0666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5923,22 +5529,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C144" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D144" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E144" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F144" t="n">
-        <v>4109.7439</v>
+        <v>11674.1772</v>
       </c>
       <c r="G144" t="n">
-        <v>163.6666666666667</v>
+        <v>152.35</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5958,22 +5564,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C145" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D145" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E145" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F145" t="n">
-        <v>15813.6314</v>
+        <v>4109.7439</v>
       </c>
       <c r="G145" t="n">
-        <v>163.3333333333334</v>
+        <v>152.6333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5993,7 +5599,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" t="n">
         <v>164</v>
@@ -6002,13 +5608,13 @@
         <v>164</v>
       </c>
       <c r="E146" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F146" t="n">
-        <v>5938.035921951219</v>
+        <v>15813.6314</v>
       </c>
       <c r="G146" t="n">
-        <v>163.3333333333334</v>
+        <v>152.9833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6028,22 +5634,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>162</v>
+      </c>
+      <c r="C147" t="n">
         <v>164</v>
-      </c>
-      <c r="C147" t="n">
-        <v>159</v>
       </c>
       <c r="D147" t="n">
         <v>164</v>
       </c>
       <c r="E147" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F147" t="n">
-        <v>81751.85965121951</v>
+        <v>5938.035921951219</v>
       </c>
       <c r="G147" t="n">
-        <v>162.3333333333334</v>
+        <v>153.35</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6063,22 +5669,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C148" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D148" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E148" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F148" t="n">
-        <v>66126.89320000001</v>
+        <v>81751.85965121951</v>
       </c>
       <c r="G148" t="n">
-        <v>160.3333333333334</v>
+        <v>153.6666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6098,7 +5704,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C149" t="n">
         <v>158</v>
@@ -6107,13 +5713,13 @@
         <v>161</v>
       </c>
       <c r="E149" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F149" t="n">
-        <v>39725.6344</v>
+        <v>66126.89320000001</v>
       </c>
       <c r="G149" t="n">
-        <v>158.3333333333334</v>
+        <v>153.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6139,16 +5745,16 @@
         <v>158</v>
       </c>
       <c r="D150" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F150" t="n">
-        <v>4122.7552</v>
+        <v>39725.6344</v>
       </c>
       <c r="G150" t="n">
-        <v>158.0000000000001</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6171,19 +5777,19 @@
         <v>158</v>
       </c>
       <c r="C151" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D151" t="n">
         <v>158</v>
       </c>
       <c r="E151" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F151" t="n">
-        <v>67061.1602</v>
+        <v>4122.7552</v>
       </c>
       <c r="G151" t="n">
-        <v>157.3333333333334</v>
+        <v>154.4166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6203,22 +5809,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C152" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D152" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E152" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F152" t="n">
-        <v>93072.8864</v>
+        <v>67061.1602</v>
       </c>
       <c r="G152" t="n">
-        <v>157.6666666666667</v>
+        <v>154.65</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6238,22 +5844,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C153" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D153" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E153" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F153" t="n">
-        <v>12549.327</v>
+        <v>93072.8864</v>
       </c>
       <c r="G153" t="n">
-        <v>158.3333333333334</v>
+        <v>154.95</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6273,22 +5879,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>158</v>
+      </c>
+      <c r="C154" t="n">
         <v>160</v>
       </c>
-      <c r="C154" t="n">
-        <v>159</v>
-      </c>
       <c r="D154" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E154" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F154" t="n">
-        <v>7862.467337106918</v>
+        <v>12549.327</v>
       </c>
       <c r="G154" t="n">
-        <v>159.3333333333334</v>
+        <v>155.25</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6308,22 +5914,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>160</v>
+      </c>
+      <c r="C155" t="n">
+        <v>159</v>
+      </c>
+      <c r="D155" t="n">
+        <v>161</v>
+      </c>
+      <c r="E155" t="n">
         <v>158</v>
       </c>
-      <c r="C155" t="n">
-        <v>155</v>
-      </c>
-      <c r="D155" t="n">
-        <v>158</v>
-      </c>
-      <c r="E155" t="n">
-        <v>154</v>
-      </c>
       <c r="F155" t="n">
-        <v>42834.5201</v>
+        <v>7862.467337106918</v>
       </c>
       <c r="G155" t="n">
-        <v>158.0000000000001</v>
+        <v>155.5333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6343,22 +5949,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D156" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E156" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F156" t="n">
-        <v>9109.1124</v>
+        <v>42834.5201</v>
       </c>
       <c r="G156" t="n">
-        <v>157.0000000000001</v>
+        <v>155.7166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6381,19 +5987,19 @@
         <v>157</v>
       </c>
       <c r="C157" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D157" t="n">
         <v>159</v>
       </c>
       <c r="E157" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F157" t="n">
-        <v>1364.2252</v>
+        <v>9109.1124</v>
       </c>
       <c r="G157" t="n">
-        <v>157.0000000000001</v>
+        <v>155.9833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6413,22 +6019,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>157</v>
+      </c>
+      <c r="C158" t="n">
         <v>159</v>
       </c>
-      <c r="C158" t="n">
-        <v>158</v>
-      </c>
       <c r="D158" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E158" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F158" t="n">
-        <v>84867.2497</v>
+        <v>1364.2252</v>
       </c>
       <c r="G158" t="n">
-        <v>158.0000000000001</v>
+        <v>156.3333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6448,22 +6054,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" t="n">
         <v>158</v>
       </c>
       <c r="D159" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E159" t="n">
         <v>158</v>
       </c>
       <c r="F159" t="n">
-        <v>9298.391900000001</v>
+        <v>84867.2497</v>
       </c>
       <c r="G159" t="n">
-        <v>158.3333333333334</v>
+        <v>156.6833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6483,7 +6089,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C160" t="n">
         <v>158</v>
@@ -6495,10 +6101,10 @@
         <v>158</v>
       </c>
       <c r="F160" t="n">
-        <v>793.3619</v>
+        <v>9298.391900000001</v>
       </c>
       <c r="G160" t="n">
-        <v>158.0000000000001</v>
+        <v>156.9833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6518,22 +6124,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" t="n">
         <v>158</v>
-      </c>
-      <c r="C161" t="n">
-        <v>155</v>
       </c>
       <c r="D161" t="n">
         <v>160</v>
       </c>
       <c r="E161" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F161" t="n">
-        <v>92917.80379999999</v>
+        <v>793.3619</v>
       </c>
       <c r="G161" t="n">
-        <v>157.0000000000001</v>
+        <v>157.3333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6553,10 +6159,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>158</v>
+      </c>
+      <c r="C162" t="n">
         <v>155</v>
-      </c>
-      <c r="C162" t="n">
-        <v>159</v>
       </c>
       <c r="D162" t="n">
         <v>160</v>
@@ -6565,10 +6171,10 @@
         <v>155</v>
       </c>
       <c r="F162" t="n">
-        <v>187.7117</v>
+        <v>92917.80379999999</v>
       </c>
       <c r="G162" t="n">
-        <v>157.3333333333334</v>
+        <v>157.65</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6588,22 +6194,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>155</v>
+      </c>
+      <c r="C163" t="n">
         <v>159</v>
-      </c>
-      <c r="C163" t="n">
-        <v>156</v>
       </c>
       <c r="D163" t="n">
         <v>160</v>
       </c>
       <c r="E163" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F163" t="n">
-        <v>2022.5398</v>
+        <v>187.7117</v>
       </c>
       <c r="G163" t="n">
-        <v>156.6666666666667</v>
+        <v>158.05</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6623,22 +6229,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>159</v>
+      </c>
+      <c r="C164" t="n">
         <v>156</v>
       </c>
-      <c r="C164" t="n">
-        <v>152</v>
-      </c>
       <c r="D164" t="n">
+        <v>160</v>
+      </c>
+      <c r="E164" t="n">
         <v>156</v>
       </c>
-      <c r="E164" t="n">
-        <v>151</v>
-      </c>
       <c r="F164" t="n">
-        <v>51351.5674</v>
+        <v>2022.5398</v>
       </c>
       <c r="G164" t="n">
-        <v>155.6666666666667</v>
+        <v>158.4166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6658,22 +6264,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C165" t="n">
         <v>152</v>
       </c>
       <c r="D165" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E165" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F165" t="n">
-        <v>17541.6517</v>
+        <v>51351.5674</v>
       </c>
       <c r="G165" t="n">
-        <v>153.3333333333334</v>
+        <v>158.7666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6696,19 +6302,19 @@
         <v>152</v>
       </c>
       <c r="C166" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D166" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E166" t="n">
         <v>152</v>
       </c>
       <c r="F166" t="n">
-        <v>4198.1766</v>
+        <v>17541.6517</v>
       </c>
       <c r="G166" t="n">
-        <v>153.0000000000001</v>
+        <v>159.1166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6728,22 +6334,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>152</v>
+      </c>
+      <c r="C167" t="n">
         <v>155</v>
-      </c>
-      <c r="C167" t="n">
-        <v>153</v>
       </c>
       <c r="D167" t="n">
         <v>155</v>
       </c>
       <c r="E167" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F167" t="n">
-        <v>8145.0382</v>
+        <v>4198.1766</v>
       </c>
       <c r="G167" t="n">
-        <v>153.3333333333334</v>
+        <v>159.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6766,19 +6372,19 @@
         <v>155</v>
       </c>
       <c r="C168" t="n">
+        <v>153</v>
+      </c>
+      <c r="D168" t="n">
         <v>155</v>
-      </c>
-      <c r="D168" t="n">
-        <v>159</v>
       </c>
       <c r="E168" t="n">
         <v>153</v>
       </c>
       <c r="F168" t="n">
-        <v>4518.437216352201</v>
+        <v>8145.0382</v>
       </c>
       <c r="G168" t="n">
-        <v>154.3333333333334</v>
+        <v>159.8166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6801,19 +6407,19 @@
         <v>155</v>
       </c>
       <c r="C169" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D169" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E169" t="n">
         <v>153</v>
       </c>
       <c r="F169" t="n">
-        <v>71263.4837</v>
+        <v>4518.437216352201</v>
       </c>
       <c r="G169" t="n">
-        <v>156.0000000000001</v>
+        <v>159.9666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6833,22 +6439,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C170" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D170" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E170" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F170" t="n">
-        <v>117044.4298</v>
+        <v>71263.4837</v>
       </c>
       <c r="G170" t="n">
-        <v>160.3333333333334</v>
+        <v>160.2833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6868,22 +6474,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>161</v>
+      </c>
+      <c r="C171" t="n">
         <v>166</v>
       </c>
-      <c r="C171" t="n">
-        <v>169</v>
-      </c>
       <c r="D171" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E171" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F171" t="n">
-        <v>54350.3612</v>
+        <v>117044.4298</v>
       </c>
       <c r="G171" t="n">
-        <v>165.0000000000001</v>
+        <v>160.5833333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6903,22 +6509,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>166</v>
+      </c>
+      <c r="C172" t="n">
         <v>169</v>
-      </c>
-      <c r="C172" t="n">
-        <v>163</v>
       </c>
       <c r="D172" t="n">
         <v>169</v>
       </c>
       <c r="E172" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F172" t="n">
-        <v>40952.8009</v>
+        <v>54350.3612</v>
       </c>
       <c r="G172" t="n">
-        <v>166.0000000000001</v>
+        <v>161</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6938,22 +6544,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>169</v>
+      </c>
+      <c r="C173" t="n">
         <v>163</v>
       </c>
-      <c r="C173" t="n">
-        <v>168</v>
-      </c>
       <c r="D173" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E173" t="n">
         <v>163</v>
       </c>
       <c r="F173" t="n">
-        <v>41521.67874761905</v>
+        <v>40952.8009</v>
       </c>
       <c r="G173" t="n">
-        <v>166.6666666666667</v>
+        <v>161.2833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6973,22 +6579,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>163</v>
+      </c>
+      <c r="C174" t="n">
         <v>168</v>
       </c>
-      <c r="C174" t="n">
-        <v>170</v>
-      </c>
       <c r="D174" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E174" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F174" t="n">
-        <v>64923.71962913165</v>
+        <v>41521.67874761905</v>
       </c>
       <c r="G174" t="n">
-        <v>167.0000000000001</v>
+        <v>161.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7008,22 +6614,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>168</v>
+      </c>
+      <c r="C175" t="n">
         <v>170</v>
       </c>
-      <c r="C175" t="n">
-        <v>179</v>
-      </c>
       <c r="D175" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E175" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F175" t="n">
-        <v>209154.8983406406</v>
+        <v>64923.71962913165</v>
       </c>
       <c r="G175" t="n">
-        <v>172.3333333333334</v>
+        <v>161.9333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7043,7 +6649,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C176" t="n">
         <v>179</v>
@@ -7052,13 +6658,13 @@
         <v>184</v>
       </c>
       <c r="E176" t="n">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F176" t="n">
-        <v>181133.839468252</v>
+        <v>209154.8983406406</v>
       </c>
       <c r="G176" t="n">
-        <v>176.0000000000001</v>
+        <v>162.2833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7078,22 +6684,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>180</v>
+      </c>
+      <c r="C177" t="n">
         <v>179</v>
       </c>
-      <c r="C177" t="n">
-        <v>178</v>
-      </c>
       <c r="D177" t="n">
+        <v>184</v>
+      </c>
+      <c r="E177" t="n">
         <v>179</v>
       </c>
-      <c r="E177" t="n">
-        <v>178</v>
-      </c>
       <c r="F177" t="n">
-        <v>32312.7698</v>
+        <v>181133.839468252</v>
       </c>
       <c r="G177" t="n">
-        <v>178.6666666666667</v>
+        <v>162.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7113,22 +6719,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>179</v>
+      </c>
+      <c r="C178" t="n">
         <v>178</v>
       </c>
-      <c r="C178" t="n">
-        <v>177</v>
-      </c>
       <c r="D178" t="n">
+        <v>179</v>
+      </c>
+      <c r="E178" t="n">
         <v>178</v>
       </c>
-      <c r="E178" t="n">
-        <v>173</v>
-      </c>
       <c r="F178" t="n">
-        <v>36525.79127191012</v>
+        <v>32312.7698</v>
       </c>
       <c r="G178" t="n">
-        <v>178.0000000000001</v>
+        <v>162.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7148,22 +6754,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C179" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D179" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E179" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F179" t="n">
-        <v>248247.1852970085</v>
+        <v>36525.79127191012</v>
       </c>
       <c r="G179" t="n">
-        <v>178.3333333333334</v>
+        <v>163.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7183,22 +6789,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>176</v>
+      </c>
+      <c r="C180" t="n">
         <v>180</v>
       </c>
-      <c r="C180" t="n">
-        <v>192</v>
-      </c>
       <c r="D180" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E180" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F180" t="n">
-        <v>301172.0466529914</v>
+        <v>248247.1852970085</v>
       </c>
       <c r="G180" t="n">
-        <v>183.0000000000001</v>
+        <v>163.5333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7218,22 +6824,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C181" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D181" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E181" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F181" t="n">
-        <v>297142.1446500384</v>
+        <v>301172.0466529914</v>
       </c>
       <c r="G181" t="n">
-        <v>190.6666666666667</v>
+        <v>163.95</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7253,22 +6859,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>191</v>
+      </c>
+      <c r="C182" t="n">
         <v>200</v>
       </c>
-      <c r="C182" t="n">
-        <v>198</v>
-      </c>
       <c r="D182" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E182" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F182" t="n">
-        <v>248513.9698724138</v>
+        <v>297142.1446500384</v>
       </c>
       <c r="G182" t="n">
-        <v>196.6666666666667</v>
+        <v>164.4833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7288,22 +6894,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C183" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D183" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E183" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F183" t="n">
-        <v>154577.649</v>
+        <v>248513.9698724138</v>
       </c>
       <c r="G183" t="n">
-        <v>200.0000000000001</v>
+        <v>164.9166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7323,22 +6929,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C184" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D184" t="n">
         <v>202</v>
       </c>
       <c r="E184" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F184" t="n">
-        <v>122719.7463462687</v>
+        <v>154577.649</v>
       </c>
       <c r="G184" t="n">
-        <v>200.0000000000001</v>
+        <v>165.45</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7358,22 +6964,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C185" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D185" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E185" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F185" t="n">
-        <v>68911.39200000001</v>
+        <v>122719.7463462687</v>
       </c>
       <c r="G185" t="n">
-        <v>197.6666666666667</v>
+        <v>165.95</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7393,22 +6999,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C186" t="n">
         <v>191</v>
       </c>
       <c r="D186" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E186" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F186" t="n">
-        <v>47252.141</v>
+        <v>68911.39200000001</v>
       </c>
       <c r="G186" t="n">
-        <v>194.0000000000001</v>
+        <v>166.25</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7431,19 +7037,19 @@
         <v>192</v>
       </c>
       <c r="C187" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D187" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E187" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F187" t="n">
-        <v>90025.61990000001</v>
+        <v>47252.141</v>
       </c>
       <c r="G187" t="n">
-        <v>190.6666666666667</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7463,22 +7069,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C188" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D188" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E188" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F188" t="n">
-        <v>36096.41405751296</v>
+        <v>90025.61990000001</v>
       </c>
       <c r="G188" t="n">
-        <v>191.3333333333334</v>
+        <v>167.05</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7498,22 +7104,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C189" t="n">
         <v>193</v>
       </c>
       <c r="D189" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E189" t="n">
         <v>188</v>
       </c>
       <c r="F189" t="n">
-        <v>107450.7786</v>
+        <v>36096.41405751296</v>
       </c>
       <c r="G189" t="n">
-        <v>192.0000000000001</v>
+        <v>167.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7536,19 +7142,19 @@
         <v>192</v>
       </c>
       <c r="C190" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D190" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E190" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F190" t="n">
-        <v>143643.5090959184</v>
+        <v>107450.7786</v>
       </c>
       <c r="G190" t="n">
-        <v>195.0000000000001</v>
+        <v>167.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7568,22 +7174,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>192</v>
+      </c>
+      <c r="C191" t="n">
         <v>199</v>
       </c>
-      <c r="C191" t="n">
-        <v>197</v>
-      </c>
       <c r="D191" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E191" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F191" t="n">
-        <v>75121.43369999999</v>
+        <v>143643.5090959184</v>
       </c>
       <c r="G191" t="n">
-        <v>196.3333333333334</v>
+        <v>168.5166666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7603,22 +7209,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>199</v>
+      </c>
+      <c r="C192" t="n">
         <v>197</v>
       </c>
-      <c r="C192" t="n">
-        <v>208</v>
-      </c>
       <c r="D192" t="n">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E192" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F192" t="n">
-        <v>216415.2523662579</v>
+        <v>75121.43369999999</v>
       </c>
       <c r="G192" t="n">
-        <v>201.3333333333334</v>
+        <v>169.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7638,22 +7244,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>197</v>
+      </c>
+      <c r="C193" t="n">
         <v>208</v>
       </c>
-      <c r="C193" t="n">
-        <v>220</v>
-      </c>
       <c r="D193" t="n">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E193" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F193" t="n">
-        <v>192128.5160905294</v>
+        <v>216415.2523662579</v>
       </c>
       <c r="G193" t="n">
-        <v>208.3333333333334</v>
+        <v>169.9333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7673,22 +7279,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>208</v>
+      </c>
+      <c r="C194" t="n">
         <v>220</v>
-      </c>
-      <c r="C194" t="n">
-        <v>221</v>
       </c>
       <c r="D194" t="n">
         <v>223</v>
       </c>
       <c r="E194" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F194" t="n">
-        <v>238965.6459488789</v>
+        <v>192128.5160905294</v>
       </c>
       <c r="G194" t="n">
-        <v>216.3333333333334</v>
+        <v>170.8333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7708,28 +7314,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C195" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D195" t="n">
         <v>223</v>
       </c>
       <c r="E195" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F195" t="n">
-        <v>32623.13556860987</v>
+        <v>238965.6459488789</v>
       </c>
       <c r="G195" t="n">
-        <v>221.0000000000001</v>
+        <v>171.75</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7743,28 +7349,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C196" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D196" t="n">
         <v>223</v>
       </c>
       <c r="E196" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F196" t="n">
-        <v>118493.4151349776</v>
+        <v>32623.13556860987</v>
       </c>
       <c r="G196" t="n">
-        <v>216.6666666666667</v>
+        <v>172.6833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7773,6 +7379,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>220</v>
+      </c>
+      <c r="C197" t="n">
+        <v>207</v>
+      </c>
+      <c r="D197" t="n">
+        <v>223</v>
+      </c>
+      <c r="E197" t="n">
+        <v>206</v>
+      </c>
+      <c r="F197" t="n">
+        <v>118493.4151349776</v>
+      </c>
+      <c r="G197" t="n">
+        <v>173.4166666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>119023.2134807018</v>
       </c>
       <c r="G2" t="n">
+        <v>106.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>97.39999999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>6021.3706</v>
       </c>
       <c r="G3" t="n">
+        <v>107.6666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>97.87333333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>114</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>65318.5335173913</v>
       </c>
       <c r="G4" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>98.28666666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>116</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>21511.6471826087</v>
       </c>
       <c r="G5" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H5" t="n">
         <v>98.71999999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>115</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>27362.9980881356</v>
       </c>
       <c r="G6" t="n">
+        <v>110.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>99.20999999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>115</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>19568.9478</v>
       </c>
       <c r="G7" t="n">
+        <v>110.8666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>99.66833333333331</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>119</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>50395.67307435897</v>
       </c>
       <c r="G8" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>100.1416666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>115</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>36652.3938</v>
       </c>
       <c r="G9" t="n">
+        <v>112.6666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>100.6033333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>116</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>24222.0906</v>
       </c>
       <c r="G10" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="H10" t="n">
         <v>101.0816666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>117</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>68818.0092</v>
       </c>
       <c r="G11" t="n">
+        <v>114.5333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>101.4766666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>118</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>8242.066000000001</v>
       </c>
       <c r="G12" t="n">
+        <v>115.2666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>101.9333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>114</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>14135.5178</v>
       </c>
       <c r="G13" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>102.3866666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>115</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,27 @@
         <v>10368.6731</v>
       </c>
       <c r="G14" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>102.8033333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>115</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,27 @@
         <v>28373.8121</v>
       </c>
       <c r="G15" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H15" t="n">
         <v>103.2066666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>114</v>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>75325.1226</v>
       </c>
       <c r="G16" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>103.5033333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>112</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,27 @@
         <v>22110.493</v>
       </c>
       <c r="G17" t="n">
+        <v>114.7333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>103.8416666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>109</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1151,27 @@
         <v>29001.5351</v>
       </c>
       <c r="G18" t="n">
+        <v>114.5333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>104.21</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>111</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1195,27 @@
         <v>5253.1179</v>
       </c>
       <c r="G19" t="n">
+        <v>114.2666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>104.48</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>113</v>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1239,27 @@
         <v>16544.8406</v>
       </c>
       <c r="G20" t="n">
+        <v>113.8666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>104.7316666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>111</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1283,27 @@
         <v>68308.0431</v>
       </c>
       <c r="G21" t="n">
+        <v>113.0666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>104.9833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>109</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1327,27 @@
         <v>4899.945</v>
       </c>
       <c r="G22" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>105.2833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>107</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1371,27 @@
         <v>5886.0921</v>
       </c>
       <c r="G23" t="n">
+        <v>112.4666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>105.6183333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>110</v>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1415,27 @@
         <v>8846.2142</v>
       </c>
       <c r="G24" t="n">
+        <v>112.1333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>105.9533333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>112</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1459,27 @@
         <v>28853.02958571428</v>
       </c>
       <c r="G25" t="n">
+        <v>111.5333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>106.2366666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>112</v>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1503,27 @@
         <v>5512.030045535715</v>
       </c>
       <c r="G26" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="H26" t="n">
         <v>106.5366666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>109</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1547,27 @@
         <v>50271.7341</v>
       </c>
       <c r="G27" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="H27" t="n">
         <v>106.8383333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>112</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1591,25 @@
         <v>23995.9909</v>
       </c>
       <c r="G28" t="n">
+        <v>110.9333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>107.1233333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1633,25 @@
         <v>7606.4834</v>
       </c>
       <c r="G29" t="n">
+        <v>110.6666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>107.3883333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1675,25 @@
         <v>57519.0654</v>
       </c>
       <c r="G30" t="n">
+        <v>110.8666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>107.7583333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1717,25 @@
         <v>17820.0802</v>
       </c>
       <c r="G31" t="n">
+        <v>111.1333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>108.1016666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1759,25 @@
         <v>44.4601</v>
       </c>
       <c r="G32" t="n">
+        <v>111.2666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>108.4066666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1801,25 @@
         <v>107.638</v>
       </c>
       <c r="G33" t="n">
+        <v>111.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>108.6783333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1843,27 @@
         <v>8342.8187</v>
       </c>
       <c r="G34" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>108.9333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>111</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1887,27 @@
         <v>11810.8226</v>
       </c>
       <c r="G35" t="n">
+        <v>111.2666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>109.22</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>110</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1931,25 @@
         <v>20740.7371</v>
       </c>
       <c r="G36" t="n">
+        <v>111.6666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>109.4666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1973,27 @@
         <v>18582.1458</v>
       </c>
       <c r="G37" t="n">
+        <v>111.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>109.7516666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>113</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2017,27 @@
         <v>13762.8036</v>
       </c>
       <c r="G38" t="n">
+        <v>111.8666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>109.9833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>113</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2061,25 @@
         <v>1528.1596</v>
       </c>
       <c r="G39" t="n">
+        <v>111.7333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>110.15</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2103,27 @@
         <v>1294.3513</v>
       </c>
       <c r="G40" t="n">
+        <v>111.8666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>110.3166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>110</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2147,27 @@
         <v>7615.3472</v>
       </c>
       <c r="G41" t="n">
+        <v>111.7333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>110.4333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>111</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2191,27 @@
         <v>3278.8619</v>
       </c>
       <c r="G42" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="H42" t="n">
         <v>110.5333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>110</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2235,27 @@
         <v>3757.5706</v>
       </c>
       <c r="G43" t="n">
+        <v>111.5333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>110.6333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>110</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2279,27 @@
         <v>13763.05</v>
       </c>
       <c r="G44" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="H44" t="n">
         <v>110.7</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>110</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2323,25 @@
         <v>1393.3181</v>
       </c>
       <c r="G45" t="n">
+        <v>111.0666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>110.7666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2365,25 @@
         <v>712.4863</v>
       </c>
       <c r="G46" t="n">
+        <v>110.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>110.8333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2407,25 @@
         <v>3144.6508</v>
       </c>
       <c r="G47" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>110.9166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2449,25 @@
         <v>7065.3067</v>
       </c>
       <c r="G48" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>111.0166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2491,25 @@
         <v>1087.1428</v>
       </c>
       <c r="G49" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>111.1166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2533,25 @@
         <v>8356.429599999999</v>
       </c>
       <c r="G50" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>111.2666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,24 +2575,25 @@
         <v>66115.48133017242</v>
       </c>
       <c r="G51" t="n">
+        <v>110.7333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>111.4</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,24 +2617,25 @@
         <v>54866.10978327296</v>
       </c>
       <c r="G52" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>111.6666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2245,22 +2659,25 @@
         <v>66698.44855978296</v>
       </c>
       <c r="G53" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="H53" t="n">
         <v>112.0833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,22 +2701,25 @@
         <v>79306.47512677165</v>
       </c>
       <c r="G54" t="n">
+        <v>113.5333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>112.5166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,22 +2743,25 @@
         <v>190612.3385526251</v>
       </c>
       <c r="G55" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="H55" t="n">
         <v>113</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,22 +2785,25 @@
         <v>63806.6824</v>
       </c>
       <c r="G56" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="H56" t="n">
         <v>113.4666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2401,22 +2827,25 @@
         <v>35288.7795</v>
       </c>
       <c r="G57" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>113.95</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2440,22 +2869,25 @@
         <v>42120.4758</v>
       </c>
       <c r="G58" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>114.2166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,22 +2911,25 @@
         <v>59405.4111</v>
       </c>
       <c r="G59" t="n">
+        <v>120.7333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>114.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,22 +2953,25 @@
         <v>42996.0515</v>
       </c>
       <c r="G60" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="H60" t="n">
         <v>114.8833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2557,22 +2995,25 @@
         <v>27247.7918</v>
       </c>
       <c r="G61" t="n">
+        <v>124.1333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>115.2666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,22 +3037,25 @@
         <v>34664.5867</v>
       </c>
       <c r="G62" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>115.6333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2635,22 +3079,25 @@
         <v>95143.57739999999</v>
       </c>
       <c r="G63" t="n">
+        <v>127.1333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>115.8833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2674,22 +3121,25 @@
         <v>36203.9774</v>
       </c>
       <c r="G64" t="n">
+        <v>128.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>116.1333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2713,22 +3163,25 @@
         <v>16947.123</v>
       </c>
       <c r="G65" t="n">
+        <v>129.5333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>116.35</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,22 +3205,25 @@
         <v>19321.5302</v>
       </c>
       <c r="G66" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>116.5166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,22 +3247,25 @@
         <v>22270.8405</v>
       </c>
       <c r="G67" t="n">
+        <v>131</v>
+      </c>
+      <c r="H67" t="n">
         <v>116.7</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,22 +3289,25 @@
         <v>13168.6885</v>
       </c>
       <c r="G68" t="n">
+        <v>131.1333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>116.9166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2869,22 +3331,25 @@
         <v>9911.768700000001</v>
       </c>
       <c r="G69" t="n">
+        <v>131</v>
+      </c>
+      <c r="H69" t="n">
         <v>117.1</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,22 +3373,25 @@
         <v>59659.94152408759</v>
       </c>
       <c r="G70" t="n">
+        <v>131.4666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>117.4166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,22 +3415,25 @@
         <v>8028.767575912409</v>
       </c>
       <c r="G71" t="n">
+        <v>131.8666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>117.8</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,22 +3457,25 @@
         <v>9058.524124087591</v>
       </c>
       <c r="G72" t="n">
+        <v>132.1333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>118.1666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3025,22 +3499,25 @@
         <v>9100.5941</v>
       </c>
       <c r="G73" t="n">
+        <v>132.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>118.5</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,22 +3541,25 @@
         <v>5484.2059</v>
       </c>
       <c r="G74" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>118.85</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3103,22 +3583,25 @@
         <v>24749.0545</v>
       </c>
       <c r="G75" t="n">
+        <v>132.3333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>119.1666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,22 +3625,25 @@
         <v>6647.853685925926</v>
       </c>
       <c r="G76" t="n">
+        <v>132.2666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>119.6</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,22 +3667,25 @@
         <v>10697.97791407407</v>
       </c>
       <c r="G77" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>120</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,22 +3709,25 @@
         <v>12982.9873</v>
       </c>
       <c r="G78" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="H78" t="n">
         <v>120.4</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,22 +3751,25 @@
         <v>176206.8690250562</v>
       </c>
       <c r="G79" t="n">
+        <v>133.5333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>120.95</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,22 +3793,25 @@
         <v>139235.7850562092</v>
       </c>
       <c r="G80" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>121.6833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,22 +3835,27 @@
         <v>97208.77529999999</v>
       </c>
       <c r="G81" t="n">
+        <v>136.2666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>122.3166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3374,18 +3877,25 @@
         <v>39406.7657</v>
       </c>
       <c r="G82" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>122.8166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3409,18 +3919,25 @@
         <v>48693.4337</v>
       </c>
       <c r="G83" t="n">
+        <v>138.3333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>123.3833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,18 +3961,25 @@
         <v>64357.367</v>
       </c>
       <c r="G84" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>123.9666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3479,18 +4003,25 @@
         <v>64587.42765135135</v>
       </c>
       <c r="G85" t="n">
+        <v>140.1333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>124.5666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,18 +4045,25 @@
         <v>12895.04849310345</v>
       </c>
       <c r="G86" t="n">
+        <v>140.5333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>125.0833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3549,18 +4087,25 @@
         <v>32855.23898181818</v>
       </c>
       <c r="G87" t="n">
+        <v>140.8666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>125.5833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,18 +4129,25 @@
         <v>3599.992</v>
       </c>
       <c r="G88" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>126.0666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3619,18 +4171,25 @@
         <v>17511.3768</v>
       </c>
       <c r="G89" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>126.6333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,18 +4213,25 @@
         <v>1289.963</v>
       </c>
       <c r="G90" t="n">
+        <v>142.5333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>127.0833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3689,18 +4255,25 @@
         <v>58923.1812</v>
       </c>
       <c r="G91" t="n">
+        <v>143.0666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>127.5833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,18 +4297,25 @@
         <v>75936.5386</v>
       </c>
       <c r="G92" t="n">
+        <v>143.5333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>128.0666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,18 +4339,25 @@
         <v>16424.95365454545</v>
       </c>
       <c r="G93" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="H93" t="n">
         <v>128.5666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,18 +4381,25 @@
         <v>41619.8442</v>
       </c>
       <c r="G94" t="n">
+        <v>143.6666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>129.1</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3829,18 +4423,25 @@
         <v>23556.0422</v>
       </c>
       <c r="G95" t="n">
+        <v>142.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>129.6</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,18 +4465,25 @@
         <v>26957.8727</v>
       </c>
       <c r="G96" t="n">
+        <v>142.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>130.1166666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3899,18 +4507,25 @@
         <v>46077.5733</v>
       </c>
       <c r="G97" t="n">
+        <v>142.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>130.5833333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,18 +4549,25 @@
         <v>18550.9195</v>
       </c>
       <c r="G98" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="H98" t="n">
         <v>131.0166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3969,18 +4591,25 @@
         <v>6194.7288</v>
       </c>
       <c r="G99" t="n">
+        <v>141.7333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>131.4666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,18 +4633,25 @@
         <v>27311.40878785714</v>
       </c>
       <c r="G100" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="H100" t="n">
         <v>131.95</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4039,18 +4675,25 @@
         <v>11145.3576</v>
       </c>
       <c r="G101" t="n">
+        <v>141</v>
+      </c>
+      <c r="H101" t="n">
         <v>132.4</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,18 +4717,25 @@
         <v>7731.0507</v>
       </c>
       <c r="G102" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="H102" t="n">
         <v>132.8333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4109,18 +4759,25 @@
         <v>2533.5972</v>
       </c>
       <c r="G103" t="n">
+        <v>140.2666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>133.25</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,18 +4801,25 @@
         <v>3923.8834</v>
       </c>
       <c r="G104" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="H104" t="n">
         <v>133.6833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4179,18 +4843,25 @@
         <v>38360.6012</v>
       </c>
       <c r="G105" t="n">
+        <v>138.8666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>134.0333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,18 +4885,25 @@
         <v>29564.3149</v>
       </c>
       <c r="G106" t="n">
+        <v>138.0666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>134.3833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4249,18 +4927,25 @@
         <v>3187.1614</v>
       </c>
       <c r="G107" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>134.7333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,18 +4969,25 @@
         <v>181.8071</v>
       </c>
       <c r="G108" t="n">
+        <v>136.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>135.1166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4319,18 +5011,25 @@
         <v>76528.444</v>
       </c>
       <c r="G109" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="H109" t="n">
         <v>135.7166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,18 +5053,25 @@
         <v>72490.3893</v>
       </c>
       <c r="G110" t="n">
+        <v>137.1333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>136.2</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4389,18 +5095,25 @@
         <v>115444.5131</v>
       </c>
       <c r="G111" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="H111" t="n">
         <v>136.7833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,18 +5137,25 @@
         <v>8611.745699999999</v>
       </c>
       <c r="G112" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="H112" t="n">
         <v>137.1833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,18 +5179,25 @@
         <v>3126.9451</v>
       </c>
       <c r="G113" t="n">
+        <v>138.1333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>137.5</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,18 +5221,25 @@
         <v>74340.5524</v>
       </c>
       <c r="G114" t="n">
+        <v>138.9333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>137.8166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4529,18 +5263,25 @@
         <v>11481.1652</v>
       </c>
       <c r="G115" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="H115" t="n">
         <v>138.15</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4564,18 +5305,25 @@
         <v>138210.1339</v>
       </c>
       <c r="G116" t="n">
+        <v>141</v>
+      </c>
+      <c r="H116" t="n">
         <v>138.6</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4599,18 +5347,25 @@
         <v>230462.1562207598</v>
       </c>
       <c r="G117" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>139.05</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,18 +5389,25 @@
         <v>61350.4543345679</v>
       </c>
       <c r="G118" t="n">
+        <v>144.6666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>139.6</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,18 +5431,25 @@
         <v>52026.255</v>
       </c>
       <c r="G119" t="n">
+        <v>146.3333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>140.0833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,18 +5473,25 @@
         <v>36731.1586</v>
       </c>
       <c r="G120" t="n">
+        <v>147.8666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>140.4</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,18 +5515,25 @@
         <v>113432.447199375</v>
       </c>
       <c r="G121" t="n">
+        <v>150.2666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>140.9166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,18 +5557,25 @@
         <v>114611.5553</v>
       </c>
       <c r="G122" t="n">
+        <v>152.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>141.45</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4809,18 +5599,25 @@
         <v>291005.1032457627</v>
       </c>
       <c r="G123" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H123" t="n">
         <v>142.1333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,18 +5641,25 @@
         <v>123602.9899046512</v>
       </c>
       <c r="G124" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="H124" t="n">
         <v>142.8</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4879,18 +5683,25 @@
         <v>111621.8010588235</v>
       </c>
       <c r="G125" t="n">
+        <v>158.7333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>143.5</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,18 +5725,25 @@
         <v>216579.6696411765</v>
       </c>
       <c r="G126" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="H126" t="n">
         <v>144.2333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4949,18 +5767,25 @@
         <v>75229.82290487265</v>
       </c>
       <c r="G127" t="n">
+        <v>161.8666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>144.9</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,18 +5809,25 @@
         <v>73131.2015</v>
       </c>
       <c r="G128" t="n">
+        <v>163.2666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>145.5333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5019,18 +5851,25 @@
         <v>48063.0831</v>
       </c>
       <c r="G129" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="H129" t="n">
         <v>146.1666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,18 +5893,25 @@
         <v>28691.7026</v>
       </c>
       <c r="G130" t="n">
+        <v>165.6666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>146.7</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,18 +5935,25 @@
         <v>14366.9526</v>
       </c>
       <c r="G131" t="n">
+        <v>165.9333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>147.1166666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,18 +5977,25 @@
         <v>40837.3132</v>
       </c>
       <c r="G132" t="n">
+        <v>166.0666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>147.5333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5159,18 +6019,25 @@
         <v>36283.4241</v>
       </c>
       <c r="G133" t="n">
+        <v>165.5333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>147.9166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,18 +6061,25 @@
         <v>85651.70329999999</v>
       </c>
       <c r="G134" t="n">
+        <v>166</v>
+      </c>
+      <c r="H134" t="n">
         <v>148.4333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5229,18 +6103,25 @@
         <v>34921.1861</v>
       </c>
       <c r="G135" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="H135" t="n">
         <v>149.0166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,18 +6145,25 @@
         <v>27837.13015535714</v>
       </c>
       <c r="G136" t="n">
+        <v>166.7333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>149.5333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5299,18 +6187,25 @@
         <v>8399.962100000001</v>
       </c>
       <c r="G137" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>150</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5334,18 +6229,25 @@
         <v>107866.961</v>
       </c>
       <c r="G138" t="n">
+        <v>166</v>
+      </c>
+      <c r="H138" t="n">
         <v>150.4833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,18 +6271,25 @@
         <v>15980.4621</v>
       </c>
       <c r="G139" t="n">
+        <v>165.5333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>150.8</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,18 +6313,25 @@
         <v>54276.4643</v>
       </c>
       <c r="G140" t="n">
+        <v>165.2666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>151.0166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5439,18 +6355,25 @@
         <v>20608.4994</v>
       </c>
       <c r="G141" t="n">
+        <v>164.7333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>151.35</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,18 +6397,25 @@
         <v>12036.2414</v>
       </c>
       <c r="G142" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="H142" t="n">
         <v>151.75</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5509,18 +6439,25 @@
         <v>35186.658</v>
       </c>
       <c r="G143" t="n">
+        <v>164.4666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>152.0666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,18 +6481,25 @@
         <v>11674.1772</v>
       </c>
       <c r="G144" t="n">
+        <v>164.3333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>152.35</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5579,18 +6523,25 @@
         <v>4109.7439</v>
       </c>
       <c r="G145" t="n">
+        <v>163.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>152.6333333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,18 +6565,25 @@
         <v>15813.6314</v>
       </c>
       <c r="G146" t="n">
+        <v>164</v>
+      </c>
+      <c r="H146" t="n">
         <v>152.9833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,18 +6607,25 @@
         <v>5938.035921951219</v>
       </c>
       <c r="G147" t="n">
+        <v>164.1333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>153.35</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,18 +6649,25 @@
         <v>81751.85965121951</v>
       </c>
       <c r="G148" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="H148" t="n">
         <v>153.6666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5719,18 +6691,25 @@
         <v>66126.89320000001</v>
       </c>
       <c r="G149" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>153.9</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,18 +6733,25 @@
         <v>39725.6344</v>
       </c>
       <c r="G150" t="n">
+        <v>163.1333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>154.1666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5789,18 +6775,25 @@
         <v>4122.7552</v>
       </c>
       <c r="G151" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="H151" t="n">
         <v>154.4166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,18 +6817,25 @@
         <v>67061.1602</v>
       </c>
       <c r="G152" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>154.65</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5859,18 +6859,25 @@
         <v>93072.8864</v>
       </c>
       <c r="G153" t="n">
+        <v>161.6666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>154.95</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,18 +6901,25 @@
         <v>12549.327</v>
       </c>
       <c r="G154" t="n">
+        <v>161.4666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>155.25</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5929,18 +6943,25 @@
         <v>7862.467337106918</v>
       </c>
       <c r="G155" t="n">
+        <v>161</v>
+      </c>
+      <c r="H155" t="n">
         <v>155.5333333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,18 +6985,25 @@
         <v>42834.5201</v>
       </c>
       <c r="G156" t="n">
+        <v>160.3333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>155.7166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5999,18 +7027,25 @@
         <v>9109.1124</v>
       </c>
       <c r="G157" t="n">
+        <v>159.8666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>155.9833333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,18 +7069,25 @@
         <v>1364.2252</v>
       </c>
       <c r="G158" t="n">
+        <v>159.4666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>156.3333333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6069,18 +7111,25 @@
         <v>84867.2497</v>
       </c>
       <c r="G159" t="n">
+        <v>159.0666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>156.6833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,18 +7153,25 @@
         <v>9298.391900000001</v>
       </c>
       <c r="G160" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H160" t="n">
         <v>156.9833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6139,18 +7195,25 @@
         <v>793.3619</v>
       </c>
       <c r="G161" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H161" t="n">
         <v>157.3333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6174,18 +7237,25 @@
         <v>92917.80379999999</v>
       </c>
       <c r="G162" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H162" t="n">
         <v>157.65</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6209,18 +7279,25 @@
         <v>187.7117</v>
       </c>
       <c r="G163" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H163" t="n">
         <v>158.05</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,18 +7321,25 @@
         <v>2022.5398</v>
       </c>
       <c r="G164" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>158.4166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6279,18 +7363,25 @@
         <v>51351.5674</v>
       </c>
       <c r="G165" t="n">
+        <v>157.2666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>158.7666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6314,18 +7405,25 @@
         <v>17541.6517</v>
       </c>
       <c r="G166" t="n">
+        <v>156.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>159.1166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6349,18 +7447,25 @@
         <v>4198.1766</v>
       </c>
       <c r="G167" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="H167" t="n">
         <v>159.5</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,18 +7489,25 @@
         <v>8145.0382</v>
       </c>
       <c r="G168" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="H168" t="n">
         <v>159.8166666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6419,18 +7531,25 @@
         <v>4518.437216352201</v>
       </c>
       <c r="G169" t="n">
+        <v>156.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>159.9666666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,18 +7573,25 @@
         <v>71263.4837</v>
       </c>
       <c r="G170" t="n">
+        <v>156.1333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>160.2833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6489,18 +7615,25 @@
         <v>117044.4298</v>
       </c>
       <c r="G171" t="n">
+        <v>156.8666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>160.5833333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6524,18 +7657,25 @@
         <v>54350.3612</v>
       </c>
       <c r="G172" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>161</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6559,18 +7699,25 @@
         <v>40952.8009</v>
       </c>
       <c r="G173" t="n">
+        <v>157.9333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>161.2833333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,18 +7741,25 @@
         <v>41521.67874761905</v>
       </c>
       <c r="G174" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>161.6</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6629,18 +7783,25 @@
         <v>64923.71962913165</v>
       </c>
       <c r="G175" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="H175" t="n">
         <v>161.9333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6664,18 +7825,25 @@
         <v>209154.8983406406</v>
       </c>
       <c r="G176" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="H176" t="n">
         <v>162.2833333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6699,18 +7867,25 @@
         <v>181133.839468252</v>
       </c>
       <c r="G177" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>162.6</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6734,18 +7909,25 @@
         <v>32312.7698</v>
       </c>
       <c r="G178" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>162.8</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,18 +7951,25 @@
         <v>36525.79127191012</v>
       </c>
       <c r="G179" t="n">
+        <v>165.0666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>163.1</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,18 +7993,25 @@
         <v>248247.1852970085</v>
       </c>
       <c r="G180" t="n">
+        <v>166.9333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>163.5333333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6839,18 +8035,25 @@
         <v>301172.0466529914</v>
       </c>
       <c r="G181" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="H181" t="n">
         <v>163.95</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,18 +8077,25 @@
         <v>297142.1446500384</v>
       </c>
       <c r="G182" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="H182" t="n">
         <v>164.4833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6909,18 +8119,25 @@
         <v>248513.9698724138</v>
       </c>
       <c r="G183" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="H183" t="n">
         <v>164.9166666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6944,18 +8161,25 @@
         <v>154577.649</v>
       </c>
       <c r="G184" t="n">
+        <v>178.7333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>165.45</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6979,18 +8203,25 @@
         <v>122719.7463462687</v>
       </c>
       <c r="G185" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="H185" t="n">
         <v>165.95</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,18 +8245,25 @@
         <v>68911.39200000001</v>
       </c>
       <c r="G186" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>166.25</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7049,18 +8287,25 @@
         <v>47252.141</v>
       </c>
       <c r="G187" t="n">
+        <v>184.5333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>166.6666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7084,18 +8329,25 @@
         <v>90025.61990000001</v>
       </c>
       <c r="G188" t="n">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>167.05</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7119,18 +8371,25 @@
         <v>36096.41405751296</v>
       </c>
       <c r="G189" t="n">
+        <v>188</v>
+      </c>
+      <c r="H189" t="n">
         <v>167.5</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7154,18 +8413,25 @@
         <v>107450.7786</v>
       </c>
       <c r="G190" t="n">
+        <v>189.5333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>167.9</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7189,18 +8455,25 @@
         <v>143643.5090959184</v>
       </c>
       <c r="G191" t="n">
+        <v>190.8666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>168.5166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7224,18 +8497,25 @@
         <v>75121.43369999999</v>
       </c>
       <c r="G192" t="n">
+        <v>192.0666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>169.1</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7259,18 +8539,25 @@
         <v>216415.2523662579</v>
       </c>
       <c r="G193" t="n">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>169.9333333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7294,18 +8581,25 @@
         <v>192128.5160905294</v>
       </c>
       <c r="G194" t="n">
+        <v>196.9333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>170.8333333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7329,18 +8623,25 @@
         <v>238965.6459488789</v>
       </c>
       <c r="G195" t="n">
+        <v>199.6666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>171.75</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7364,18 +8665,25 @@
         <v>32623.13556860987</v>
       </c>
       <c r="G196" t="n">
+        <v>201.6666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>172.6833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7399,18 +8707,403 @@
         <v>118493.4151349776</v>
       </c>
       <c r="G197" t="n">
+        <v>202.1333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>173.4166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>206</v>
+      </c>
+      <c r="C198" t="n">
+        <v>213</v>
+      </c>
+      <c r="D198" t="n">
+        <v>216</v>
+      </c>
+      <c r="E198" t="n">
+        <v>206</v>
+      </c>
+      <c r="F198" t="n">
+        <v>97238.13916074767</v>
+      </c>
+      <c r="G198" t="n">
+        <v>203.1333333333333</v>
+      </c>
+      <c r="H198" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>212</v>
+      </c>
+      <c r="C199" t="n">
+        <v>218</v>
+      </c>
+      <c r="D199" t="n">
+        <v>218</v>
+      </c>
+      <c r="E199" t="n">
+        <v>212</v>
+      </c>
+      <c r="F199" t="n">
+        <v>117170.5966398743</v>
+      </c>
+      <c r="G199" t="n">
+        <v>204.2</v>
+      </c>
+      <c r="H199" t="n">
+        <v>175.1166666666667</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>218</v>
+      </c>
+      <c r="C200" t="n">
+        <v>218</v>
+      </c>
+      <c r="D200" t="n">
+        <v>220</v>
+      </c>
+      <c r="E200" t="n">
+        <v>214</v>
+      </c>
+      <c r="F200" t="n">
+        <v>90843.3752832402</v>
+      </c>
+      <c r="G200" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="H200" t="n">
+        <v>175.9833333333333</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>217</v>
+      </c>
+      <c r="C201" t="n">
+        <v>216</v>
+      </c>
+      <c r="D201" t="n">
+        <v>217</v>
+      </c>
+      <c r="E201" t="n">
+        <v>215</v>
+      </c>
+      <c r="F201" t="n">
+        <v>30812.5103</v>
+      </c>
+      <c r="G201" t="n">
+        <v>207.0666666666667</v>
+      </c>
+      <c r="H201" t="n">
+        <v>176.8333333333333</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>216</v>
+      </c>
+      <c r="C202" t="n">
+        <v>206</v>
+      </c>
+      <c r="D202" t="n">
+        <v>216</v>
+      </c>
+      <c r="E202" t="n">
+        <v>205</v>
+      </c>
+      <c r="F202" t="n">
+        <v>161255.6201086534</v>
+      </c>
+      <c r="G202" t="n">
+        <v>208.0666666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>177.5333333333333</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>205</v>
+      </c>
+      <c r="C203" t="n">
+        <v>211</v>
+      </c>
+      <c r="D203" t="n">
+        <v>211</v>
+      </c>
+      <c r="E203" t="n">
+        <v>205</v>
+      </c>
+      <c r="F203" t="n">
+        <v>49914.574</v>
+      </c>
+      <c r="G203" t="n">
+        <v>209.4666666666667</v>
+      </c>
+      <c r="H203" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>210</v>
+      </c>
+      <c r="C204" t="n">
+        <v>212</v>
+      </c>
+      <c r="D204" t="n">
+        <v>214</v>
+      </c>
+      <c r="E204" t="n">
+        <v>207</v>
+      </c>
+      <c r="F204" t="n">
+        <v>56115.83145981308</v>
+      </c>
+      <c r="G204" t="n">
+        <v>210.7333333333333</v>
+      </c>
+      <c r="H204" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>211</v>
+      </c>
+      <c r="C205" t="n">
+        <v>207</v>
+      </c>
+      <c r="D205" t="n">
+        <v>211</v>
+      </c>
+      <c r="E205" t="n">
+        <v>206</v>
+      </c>
+      <c r="F205" t="n">
+        <v>106038.2671846154</v>
+      </c>
+      <c r="G205" t="n">
+        <v>211.6666666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>179.85</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>207</v>
+      </c>
+      <c r="C206" t="n">
+        <v>207</v>
+      </c>
+      <c r="D206" t="n">
+        <v>209</v>
+      </c>
+      <c r="E206" t="n">
+        <v>207</v>
+      </c>
+      <c r="F206" t="n">
+        <v>27835.3012</v>
+      </c>
+      <c r="G206" t="n">
+        <v>212.2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>180.5666666666667</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>206</v>
+      </c>
+      <c r="C207" t="n">
+        <v>199</v>
+      </c>
+      <c r="D207" t="n">
+        <v>207</v>
+      </c>
+      <c r="E207" t="n">
+        <v>197</v>
+      </c>
+      <c r="F207" t="n">
+        <v>138809.5047</v>
+      </c>
+      <c r="G207" t="n">
+        <v>212.3333333333333</v>
+      </c>
+      <c r="H207" t="n">
+        <v>181.15</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>63655.71309822732</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>63543.35349822731</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="J3" t="n">
         <v>90.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>63575.35349822731</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J4" t="n">
-        <v>89</v>
-      </c>
-      <c r="K4" t="n">
         <v>90.2</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>63462.62809822731</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K5" t="n">
         <v>90.2</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>63949.08349822731</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="J6" t="n">
         <v>87.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>66940.08349822731</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="K7" t="n">
         <v>87.5</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>66940.08349822731</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="J8" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K8" t="n">
         <v>87.5</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +722,19 @@
         <v>66950.08349822731</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="J9" t="n">
         <v>89.3</v>
       </c>
-      <c r="K9" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,26 +759,23 @@
         <v>66800.29309822731</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.3</v>
       </c>
       <c r="J10" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K10" t="n">
         <v>89.3</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,26 +800,23 @@
         <v>67239.3189982273</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="K11" t="n">
         <v>89.3</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +841,19 @@
         <v>67249.3189982273</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="J12" t="n">
         <v>87.8</v>
       </c>
-      <c r="K12" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,26 +878,23 @@
         <v>67217.3189982273</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J13" t="n">
-        <v>89</v>
-      </c>
-      <c r="K13" t="n">
         <v>87.8</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,26 +919,23 @@
         <v>67437.4960982273</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>87.8</v>
       </c>
       <c r="J14" t="n">
         <v>87.8</v>
       </c>
-      <c r="K14" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +960,19 @@
         <v>65936.82639822731</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="J15" t="n">
         <v>91.2</v>
       </c>
-      <c r="K15" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,26 +997,23 @@
         <v>75936.82639822731</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="J16" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>91.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,26 +1038,23 @@
         <v>76136.82639822731</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>91.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,26 +1079,23 @@
         <v>76129.82639822731</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="J18" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,26 +1120,23 @@
         <v>76114.7392982273</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,26 +1161,23 @@
         <v>76175.0873982273</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1264,26 +1202,23 @@
         <v>75915.23919822731</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J21" t="n">
-        <v>92</v>
-      </c>
-      <c r="K21" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1308,26 +1243,23 @@
         <v>75915.23919822731</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,26 +1284,23 @@
         <v>77915.23919822731</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,26 +1325,23 @@
         <v>81379.85619822731</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J24" t="n">
-        <v>92</v>
-      </c>
-      <c r="K24" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1440,26 +1366,23 @@
         <v>79933.35469822731</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J25" t="n">
-        <v>94</v>
-      </c>
-      <c r="K25" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,26 +1407,23 @@
         <v>79933.35469822731</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1528,26 +1448,23 @@
         <v>83115.36849822731</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1572,26 +1489,23 @@
         <v>54887.86659822731</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1616,26 +1530,23 @@
         <v>49887.86659822731</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>92.8</v>
       </c>
       <c r="J29" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1660,26 +1571,21 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>91.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1704,24 +1610,23 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>94.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1746,24 +1651,23 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>94.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1790,22 +1694,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1832,22 +1733,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1874,22 +1772,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1916,22 +1811,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1958,22 +1850,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,22 +1889,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2042,22 +1928,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2084,22 +1967,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2126,22 +2006,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2168,22 +2045,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2210,22 +2084,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2252,22 +2123,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2294,22 +2162,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2336,22 +2201,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,22 +2240,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,22 +2279,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2462,22 +2318,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2504,22 +2357,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2546,22 +2396,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2588,22 +2435,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2630,22 +2474,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2672,22 +2513,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2714,22 +2552,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2756,22 +2591,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2798,22 +2630,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,22 +2669,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2882,22 +2708,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2924,22 +2747,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2966,22 +2786,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3008,22 +2825,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3050,22 +2864,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3092,22 +2903,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3134,22 +2942,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3176,22 +2981,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3218,22 +3020,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3260,22 +3059,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3302,22 +3098,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3344,22 +3137,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3386,22 +3176,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3428,22 +3215,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3470,22 +3254,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3512,22 +3293,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3554,22 +3332,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3596,22 +3371,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3638,22 +3410,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3680,22 +3449,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3722,22 +3488,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3764,22 +3527,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3806,22 +3566,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,22 +3605,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,22 +3644,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,22 +3683,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3974,22 +3722,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,22 +3761,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4058,22 +3800,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4100,22 +3839,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4142,22 +3878,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4184,22 +3917,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4226,22 +3956,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4268,22 +3995,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4310,22 +4034,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4352,22 +4073,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4394,22 +4112,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4436,22 +4151,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4478,22 +4190,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4520,22 +4229,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4562,22 +4268,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4604,22 +4307,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4646,22 +4346,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4688,22 +4385,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4730,22 +4424,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4772,22 +4463,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4814,22 +4502,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4856,22 +4541,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4898,22 +4580,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4940,22 +4619,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4982,22 +4658,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5024,22 +4697,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5066,22 +4736,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5108,22 +4775,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5150,22 +4814,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5192,22 +4853,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5234,22 +4892,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5276,22 +4931,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5318,22 +4970,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5360,22 +5009,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5402,22 +5048,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5444,22 +5087,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5486,22 +5126,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5528,22 +5165,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5570,22 +5204,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5612,22 +5243,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5654,22 +5282,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5696,22 +5321,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5738,22 +5360,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5780,22 +5399,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5822,22 +5438,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5864,22 +5477,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5906,22 +5516,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5948,22 +5555,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5990,22 +5594,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6032,22 +5633,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6074,22 +5672,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6116,22 +5711,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6158,22 +5750,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6200,22 +5789,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6242,22 +5828,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6284,22 +5867,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6326,22 +5906,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6368,22 +5945,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6410,22 +5984,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6452,22 +6023,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6494,22 +6062,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6536,22 +6101,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6578,22 +6140,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6620,22 +6179,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6662,22 +6218,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6704,22 +6257,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6746,22 +6296,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6788,22 +6335,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6830,22 +6374,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6872,22 +6413,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6914,22 +6452,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6956,22 +6491,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6998,22 +6530,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7040,22 +6569,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7082,22 +6608,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7124,22 +6647,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7166,22 +6686,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7208,22 +6725,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7250,22 +6764,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7292,22 +6803,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7334,22 +6842,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7376,22 +6881,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7418,22 +6920,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7460,22 +6959,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7502,22 +6998,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7544,22 +7037,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7586,22 +7076,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7628,22 +7115,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7670,22 +7154,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7712,22 +7193,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7754,22 +7232,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7796,22 +7271,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7838,22 +7310,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7880,22 +7349,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7922,22 +7388,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7964,22 +7427,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8006,22 +7466,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8048,22 +7505,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8090,22 +7544,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8132,22 +7583,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8174,22 +7622,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8216,22 +7661,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8258,22 +7700,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8300,22 +7739,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8342,22 +7778,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8384,22 +7817,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8426,22 +7856,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8468,22 +7895,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8510,22 +7934,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8552,22 +7973,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8594,22 +8012,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8636,22 +8051,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8678,22 +8090,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8720,22 +8129,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8762,22 +8168,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8804,22 +8207,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8846,22 +8246,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8888,22 +8285,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8930,22 +8324,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8972,22 +8363,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9014,22 +8402,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9056,22 +8441,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9098,22 +8480,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9140,22 +8519,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9182,22 +8558,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9224,22 +8597,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9266,22 +8636,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9308,22 +8675,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9350,22 +8714,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9392,22 +8753,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9434,22 +8792,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9476,22 +8831,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9518,22 +8870,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9560,22 +8909,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9602,22 +8948,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9644,22 +8987,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9686,22 +9026,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9728,22 +9065,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9770,22 +9104,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9812,22 +9143,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9854,22 +9182,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9896,22 +9221,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9938,22 +9260,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9980,22 +9299,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10022,22 +9338,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10064,22 +9377,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10106,22 +9416,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10148,22 +9455,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10190,22 +9494,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10232,22 +9533,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10274,22 +9572,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10316,22 +9611,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10358,22 +9650,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10400,22 +9689,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10442,22 +9728,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10482,24 +9765,23 @@
         <v>3065593.482107599</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>2.187982456140351</v>
       </c>
       <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+        <v>1.042285714285714</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10524,24 +9806,15 @@
         <v>2817079.512235186</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10566,24 +9839,15 @@
         <v>2971657.161235186</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10608,24 +9872,15 @@
         <v>2848937.414888917</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10650,24 +9905,15 @@
         <v>2780026.022888917</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10692,24 +9938,15 @@
         <v>2780026.022888917</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10734,24 +9971,15 @@
         <v>2690000.402988917</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10778,22 +10006,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10820,22 +10039,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10862,22 +10072,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10904,22 +10105,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10946,22 +10138,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10988,22 +10171,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11028,24 +10202,15 @@
         <v>3442128.306848015</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11070,24 +10235,15 @@
         <v>3474751.442416625</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11112,26 +10268,15 @@
         <v>3356258.027281647</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>2.264736842105263</v>
-      </c>
-      <c r="N255" t="n">
-        <v>1.042285714285714</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11156,18 +10301,15 @@
         <v>3453496.166442395</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11192,18 +10334,15 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11228,18 +10367,15 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11266,16 +10402,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11302,16 +10435,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11336,18 +10466,15 @@
         <v>3428513.206673616</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11372,18 +10499,15 @@
         <v>3484629.038133429</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11408,18 +10532,15 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11446,16 +10567,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11480,20 +10598,17 @@
         <v>3239781.266248813</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>63655.71309822732</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>63543.35349822731</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>90.2</v>
@@ -521,7 +521,7 @@
         <v>63575.35349822731</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>89</v>
@@ -562,7 +562,7 @@
         <v>63462.62809822731</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>89.59999999999999</v>
@@ -603,7 +603,7 @@
         <v>63949.08349822731</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>87.5</v>
@@ -640,7 +640,7 @@
         <v>66940.08349822731</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>87.59999999999999</v>
@@ -681,7 +681,7 @@
         <v>66940.08349822731</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>89.3</v>
@@ -722,7 +722,7 @@
         <v>66950.08349822731</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>89.3</v>
@@ -759,7 +759,7 @@
         <v>66800.29309822731</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>90.3</v>
@@ -800,7 +800,7 @@
         <v>67239.3189982273</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>87.59999999999999</v>
@@ -841,7 +841,7 @@
         <v>67249.3189982273</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>87.8</v>
@@ -878,7 +878,7 @@
         <v>67217.3189982273</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>89</v>
@@ -919,7 +919,7 @@
         <v>67437.4960982273</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>87.8</v>
@@ -960,7 +960,7 @@
         <v>65936.82639822731</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>91.2</v>
@@ -997,7 +997,7 @@
         <v>75936.82639822731</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>90.7</v>
@@ -1038,7 +1038,7 @@
         <v>76136.82639822731</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>90.90000000000001</v>
@@ -1079,7 +1079,7 @@
         <v>76129.82639822731</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>94.8</v>
@@ -1120,7 +1120,7 @@
         <v>76114.7392982273</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>93.90000000000001</v>
@@ -1161,7 +1161,7 @@
         <v>76175.0873982273</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>91.90000000000001</v>
@@ -1202,7 +1202,7 @@
         <v>75915.23919822731</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>92</v>
@@ -1243,7 +1243,7 @@
         <v>75915.23919822731</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>91.90000000000001</v>
@@ -1284,7 +1284,7 @@
         <v>77915.23919822731</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>91.90000000000001</v>
@@ -1325,7 +1325,7 @@
         <v>81379.85619822731</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>92</v>
@@ -1366,7 +1366,7 @@
         <v>79933.35469822731</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>94</v>
@@ -1407,7 +1407,7 @@
         <v>79933.35469822731</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>93.90000000000001</v>
@@ -1448,7 +1448,7 @@
         <v>83115.36849822731</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>93.90000000000001</v>
@@ -1489,7 +1489,7 @@
         <v>54887.86659822731</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>94.09999999999999</v>
@@ -1530,7 +1530,7 @@
         <v>49887.86659822731</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>92.8</v>
@@ -1571,9 +1571,11 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>92.40000000000001</v>
+      </c>
       <c r="J30" t="n">
         <v>91.2</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>94.7</v>
@@ -1651,7 +1653,7 @@
         <v>58879.0386982273</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>94.7</v>
@@ -1692,9 +1694,11 @@
         <v>64819.6530982273</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>94.7</v>
+      </c>
       <c r="J33" t="n">
         <v>91.2</v>
       </c>
@@ -1731,9 +1735,11 @@
         <v>104302.1591982273</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>94.8</v>
+      </c>
       <c r="J34" t="n">
         <v>91.2</v>
       </c>
@@ -1770,9 +1776,11 @@
         <v>104282.1591982273</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>98.2</v>
+      </c>
       <c r="J35" t="n">
         <v>91.2</v>
       </c>
@@ -1809,9 +1817,11 @@
         <v>104803.2941982273</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>95.90000000000001</v>
+      </c>
       <c r="J36" t="n">
         <v>91.2</v>
       </c>
@@ -1848,9 +1858,11 @@
         <v>131561.0116982273</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>98.09999999999999</v>
+      </c>
       <c r="J37" t="n">
         <v>91.2</v>
       </c>
@@ -1887,9 +1899,11 @@
         <v>198228.6207077511</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>100</v>
+      </c>
       <c r="J38" t="n">
         <v>91.2</v>
       </c>
@@ -2238,9 +2252,11 @@
         <v>334314.1018761119</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>105</v>
+      </c>
       <c r="J47" t="n">
         <v>91.2</v>
       </c>
@@ -2277,9 +2293,11 @@
         <v>311627.0056761119</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>104</v>
+      </c>
       <c r="J48" t="n">
         <v>91.2</v>
       </c>
@@ -2316,9 +2334,11 @@
         <v>335668.2173761119</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>103</v>
+      </c>
       <c r="J49" t="n">
         <v>91.2</v>
       </c>
@@ -2355,9 +2375,11 @@
         <v>333040.6075761119</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>105</v>
+      </c>
       <c r="J50" t="n">
         <v>91.2</v>
       </c>
@@ -2394,9 +2416,11 @@
         <v>329569.4655761119</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>104</v>
+      </c>
       <c r="J51" t="n">
         <v>91.2</v>
       </c>
@@ -2433,9 +2457,11 @@
         <v>332405.5035761119</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>102</v>
+      </c>
       <c r="J52" t="n">
         <v>91.2</v>
       </c>
@@ -2472,9 +2498,11 @@
         <v>324127.9456761119</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>104</v>
+      </c>
       <c r="J53" t="n">
         <v>91.2</v>
       </c>
@@ -2511,9 +2539,11 @@
         <v>325618.3170761119</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>101</v>
+      </c>
       <c r="J54" t="n">
         <v>91.2</v>
       </c>
@@ -2550,9 +2580,11 @@
         <v>326807.8531761119</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>103</v>
+      </c>
       <c r="J55" t="n">
         <v>91.2</v>
       </c>
@@ -2589,9 +2621,11 @@
         <v>556948.8123470522</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>104</v>
+      </c>
       <c r="J56" t="n">
         <v>91.2</v>
       </c>
@@ -9765,7 +9799,7 @@
         <v>3065593.482107599</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
@@ -9773,15 +9807,13 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
-        <v>2.187982456140351</v>
-      </c>
-      <c r="M240" t="n">
-        <v>1.042285714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9806,11 +9838,17 @@
         <v>2817079.512235186</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9839,15 +9877,23 @@
         <v>2971657.161235186</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>2.209912280701754</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1.042285714285714</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9872,7 +9918,7 @@
         <v>2848937.414888917</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9905,7 +9951,7 @@
         <v>2780026.022888917</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9938,7 +9984,7 @@
         <v>2780026.022888917</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9971,7 +10017,7 @@
         <v>2690000.402988917</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10004,7 +10050,7 @@
         <v>2726096.81704643</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10037,7 +10083,7 @@
         <v>2726096.81704643</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10070,7 +10116,7 @@
         <v>2869740.326142348</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10103,7 +10149,7 @@
         <v>2794618.892442348</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10136,7 +10182,7 @@
         <v>3011034.144808606</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10169,7 +10215,7 @@
         <v>3203162.660899136</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10202,7 +10248,7 @@
         <v>3442128.306848015</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10235,7 +10281,7 @@
         <v>3474751.442416625</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10268,7 +10314,7 @@
         <v>3356258.027281647</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10301,7 +10347,7 @@
         <v>3453496.166442395</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10334,7 +10380,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10367,7 +10413,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10400,7 +10446,7 @@
         <v>3539854.252782269</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10433,7 +10479,7 @@
         <v>3378598.632673616</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10466,7 +10512,7 @@
         <v>3428513.206673616</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10499,7 +10545,7 @@
         <v>3484629.038133429</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10532,7 +10578,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10565,7 +10611,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10598,7 +10644,7 @@
         <v>3239781.266248813</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10609,6 +10655,6 @@
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2252,11 +2252,9 @@
         <v>334314.1018761119</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>91.2</v>
       </c>
@@ -2293,11 +2291,9 @@
         <v>311627.0056761119</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>91.2</v>
       </c>
@@ -2334,11 +2330,9 @@
         <v>335668.2173761119</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>91.2</v>
       </c>
@@ -2375,11 +2369,9 @@
         <v>333040.6075761119</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>91.2</v>
       </c>
@@ -2416,11 +2408,9 @@
         <v>329569.4655761119</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>91.2</v>
       </c>
@@ -2457,11 +2447,9 @@
         <v>332405.5035761119</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>91.2</v>
       </c>
@@ -2498,11 +2486,9 @@
         <v>324127.9456761119</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>91.2</v>
       </c>
@@ -2539,11 +2525,9 @@
         <v>325618.3170761119</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>91.2</v>
       </c>
@@ -2580,11 +2564,9 @@
         <v>326807.8531761119</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>91.2</v>
       </c>
@@ -2621,11 +2603,9 @@
         <v>556948.8123470522</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>91.2</v>
       </c>
@@ -5821,7 +5801,7 @@
         <v>1033508.526694898</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
@@ -5829,13 +5809,15 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>1.672631578947368</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.042285714285714</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5860,17 +5842,11 @@
         <v>936299.7513948978</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5899,17 +5875,11 @@
         <v>896892.9856948978</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5938,17 +5908,11 @@
         <v>945586.4193948979</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5977,17 +5941,11 @@
         <v>1009943.786394898</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6016,17 +5974,11 @@
         <v>945356.3587435465</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6055,17 +6007,11 @@
         <v>932461.3102504431</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6094,17 +6040,11 @@
         <v>899606.0712686249</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6133,17 +6073,11 @@
         <v>896006.0792686249</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6172,17 +6106,11 @@
         <v>913517.4560686249</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6211,17 +6139,11 @@
         <v>912227.4930686249</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6250,17 +6172,11 @@
         <v>971150.6742686249</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6289,17 +6205,11 @@
         <v>895214.1356686249</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6328,17 +6238,11 @@
         <v>878789.1820140794</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6367,17 +6271,11 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6406,17 +6304,11 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6448,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6487,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6526,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6643,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6721,14 +6571,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +6604,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6799,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6838,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6877,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +6736,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6955,14 +6769,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6994,14 +6802,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7033,14 +6835,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7072,14 +6868,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7111,14 +6901,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +6934,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7186,17 +6964,11 @@
         <v>1043349.049301937</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7225,17 +6997,11 @@
         <v>1181559.183201937</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7264,17 +7030,11 @@
         <v>1412021.339422696</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7303,17 +7063,11 @@
         <v>1473371.793757264</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7342,17 +7096,11 @@
         <v>1421345.538757264</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7381,17 +7129,11 @@
         <v>1384614.380157264</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7420,17 +7162,11 @@
         <v>1498046.827356639</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7459,17 +7195,11 @@
         <v>1612658.382656639</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7498,17 +7228,11 @@
         <v>1903663.485902402</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7537,17 +7261,11 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7576,17 +7294,11 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7615,17 +7327,11 @@
         <v>1996640.165638927</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7654,17 +7360,11 @@
         <v>1921410.342734055</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7693,17 +7393,11 @@
         <v>1994541.544234055</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7735,14 +7429,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7774,14 +7462,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7810,17 +7492,11 @@
         <v>1960803.211134055</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7852,14 +7528,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +7561,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +7594,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7969,14 +7627,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +7660,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8044,17 +7690,11 @@
         <v>2001771.528234055</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8083,17 +7723,11 @@
         <v>2109638.489234055</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8122,17 +7756,11 @@
         <v>2093658.027134055</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8161,17 +7789,11 @@
         <v>2147934.491434055</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8200,17 +7822,11 @@
         <v>2127325.992034055</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8239,17 +7855,11 @@
         <v>2115289.750634055</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8278,17 +7888,11 @@
         <v>2150476.408634054</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8317,17 +7921,11 @@
         <v>2138802.231434055</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8356,17 +7954,11 @@
         <v>2134692.487534055</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8395,17 +7987,11 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8434,17 +8020,11 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8473,17 +8053,11 @@
         <v>2068754.259282835</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8512,17 +8086,11 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8551,17 +8119,11 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8590,17 +8152,11 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8629,17 +8185,11 @@
         <v>1935566.205882835</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8668,17 +8218,11 @@
         <v>2028639.092282835</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8707,17 +8251,11 @@
         <v>2041188.419282835</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8746,17 +8284,11 @@
         <v>2033325.951945728</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8785,17 +8317,11 @@
         <v>1990491.431845728</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8824,17 +8350,11 @@
         <v>1999600.544245728</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8863,17 +8383,11 @@
         <v>2000964.769445728</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8902,17 +8416,11 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8944,14 +8452,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8980,17 +8482,11 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9022,14 +8518,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9058,17 +8548,11 @@
         <v>1823367.427645728</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9100,14 +8584,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9139,14 +8617,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9178,14 +8650,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9217,14 +8683,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9256,14 +8716,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9295,14 +8749,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9334,14 +8782,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9373,14 +8815,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9412,14 +8848,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9451,14 +8881,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9490,14 +8914,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9529,14 +8947,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9568,14 +8980,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9607,14 +9013,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9646,14 +9046,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9685,14 +9079,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9724,14 +9112,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9763,14 +9145,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9802,14 +9178,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9841,14 +9211,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9877,23 +9241,15 @@
         <v>2971657.161235186</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>2.209912280701754</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1.042285714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9918,7 +9274,7 @@
         <v>2848937.414888917</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9951,7 +9307,7 @@
         <v>2780026.022888917</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9984,7 +9340,7 @@
         <v>2780026.022888917</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10017,7 +9373,7 @@
         <v>2690000.402988917</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10050,7 +9406,7 @@
         <v>2726096.81704643</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10083,7 +9439,7 @@
         <v>2726096.81704643</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10116,7 +9472,7 @@
         <v>2869740.326142348</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10149,7 +9505,7 @@
         <v>2794618.892442348</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10182,7 +9538,7 @@
         <v>3011034.144808606</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10215,7 +9571,7 @@
         <v>3203162.660899136</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10248,7 +9604,7 @@
         <v>3442128.306848015</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10281,7 +9637,7 @@
         <v>3474751.442416625</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10314,7 +9670,7 @@
         <v>3356258.027281647</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10347,7 +9703,7 @@
         <v>3453496.166442395</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10380,7 +9736,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10413,7 +9769,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10446,7 +9802,7 @@
         <v>3539854.252782269</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10479,7 +9835,7 @@
         <v>3378598.632673616</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10512,7 +9868,7 @@
         <v>3428513.206673616</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10545,7 +9901,7 @@
         <v>3484629.038133429</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10578,7 +9934,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10611,7 +9967,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10644,7 +10000,7 @@
         <v>3239781.266248813</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10655,6 +10011,6 @@
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FX.xlsx
+++ b/BackTest/2019-10-27 BackTest FX.xlsx
@@ -1735,11 +1735,9 @@
         <v>104302.1591982273</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>94.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>91.2</v>
       </c>
@@ -1776,11 +1774,9 @@
         <v>104282.1591982273</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>98.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>91.2</v>
       </c>
@@ -1817,11 +1813,9 @@
         <v>104803.2941982273</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>95.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>91.2</v>
       </c>
@@ -1858,11 +1852,9 @@
         <v>131561.0116982273</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>98.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>91.2</v>
       </c>
@@ -1899,11 +1891,9 @@
         <v>198228.6207077511</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>91.2</v>
       </c>
@@ -5801,7 +5791,7 @@
         <v>1033508.526694898</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
@@ -5809,15 +5799,13 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.672631578947368</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.042285714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5842,11 +5830,17 @@
         <v>936299.7513948978</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5869,17 @@
         <v>896892.9856948978</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5908,17 @@
         <v>945586.4193948979</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5941,11 +5947,17 @@
         <v>1009943.786394898</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +5986,17 @@
         <v>945356.3587435465</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6007,11 +6025,17 @@
         <v>932461.3102504431</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +6064,17 @@
         <v>899606.0712686249</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6073,11 +6103,17 @@
         <v>896006.0792686249</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6106,11 +6142,17 @@
         <v>913517.4560686249</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6139,11 +6181,17 @@
         <v>912227.4930686249</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6172,11 +6220,17 @@
         <v>971150.6742686249</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6205,11 +6259,17 @@
         <v>895214.1356686249</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +6298,17 @@
         <v>878789.1820140794</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +6337,17 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +6376,17 @@
         <v>920409.0262140795</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6439,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6472,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6505,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6538,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6571,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6835,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6901,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6964,11 +7156,17 @@
         <v>1043349.049301937</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +7195,17 @@
         <v>1181559.183201937</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +7234,17 @@
         <v>1412021.339422696</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7063,11 +7273,17 @@
         <v>1473371.793757264</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +7312,17 @@
         <v>1421345.538757264</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +7351,17 @@
         <v>1384614.380157264</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7162,11 +7390,17 @@
         <v>1498046.827356639</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +7429,17 @@
         <v>1612658.382656639</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7228,11 +7468,17 @@
         <v>1903663.485902402</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +7507,17 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7294,11 +7546,17 @@
         <v>1780060.495997751</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7327,11 +7585,17 @@
         <v>1996640.165638927</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7360,11 +7624,17 @@
         <v>1921410.342734055</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7393,11 +7663,17 @@
         <v>1994541.544234055</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7429,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7492,11 +7780,17 @@
         <v>1960803.211134055</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +8014,17 @@
         <v>2001771.528234055</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7723,11 +8053,17 @@
         <v>2109638.489234055</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7756,11 +8092,17 @@
         <v>2093658.027134055</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +8131,17 @@
         <v>2147934.491434055</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7822,11 +8170,17 @@
         <v>2127325.992034055</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7855,11 +8209,17 @@
         <v>2115289.750634055</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +8248,17 @@
         <v>2150476.408634054</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7921,11 +8287,17 @@
         <v>2138802.231434055</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +8326,17 @@
         <v>2134692.487534055</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +8365,17 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +8404,17 @@
         <v>2150506.118934054</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +8443,17 @@
         <v>2068754.259282835</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +8482,17 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8119,11 +8521,17 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +8560,17 @@
         <v>2002627.366082835</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8185,11 +8599,17 @@
         <v>1935566.205882835</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8218,11 +8638,17 @@
         <v>2028639.092282835</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +8677,17 @@
         <v>2041188.419282835</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8284,11 +8716,17 @@
         <v>2033325.951945728</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +8755,17 @@
         <v>1990491.431845728</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +8794,17 @@
         <v>1999600.544245728</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8383,11 +8833,17 @@
         <v>2000964.769445728</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8416,11 +8872,17 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8452,8 +8914,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +8950,17 @@
         <v>1916097.519745728</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8518,8 +8992,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +9028,17 @@
         <v>1823367.427645728</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8584,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8617,8 +9109,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8650,8 +9148,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +9187,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8716,8 +9226,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8749,8 +9265,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8782,8 +9304,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8848,8 +9382,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8881,8 +9421,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8914,8 +9460,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8947,8 +9499,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8980,8 +9538,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9013,8 +9577,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +9616,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9079,8 +9655,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9112,8 +9694,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9145,8 +9733,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9178,8 +9772,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9211,8 +9811,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9244,8 +9850,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +9889,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +9928,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +9967,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +10006,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +10045,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +10084,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +10123,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +10162,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +10201,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +10240,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +10279,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +10318,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9670,15 +10354,23 @@
         <v>3356258.027281647</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>2.264736842105263</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1.042285714285714</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9703,7 +10395,7 @@
         <v>3453496.166442395</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9736,7 +10428,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9769,7 +10461,7 @@
         <v>3570666.763082269</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9802,7 +10494,7 @@
         <v>3539854.252782269</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9835,7 +10527,7 @@
         <v>3378598.632673616</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9868,7 +10560,7 @@
         <v>3428513.206673616</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9901,7 +10593,7 @@
         <v>3484629.038133429</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9934,7 +10626,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9967,7 +10659,7 @@
         <v>3378590.770948813</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10000,7 +10692,7 @@
         <v>3239781.266248813</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
